--- a/Data_Sets/nfl_defense_ranking.xlsx
+++ b/Data_Sets/nfl_defense_ranking.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lynnpowell/Documents/DS_Projects/NFL_Analysis/Data_Sets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD426B2A-EE18-244C-AA0A-787D8F49FC47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF4DFAD5-1F1B-CB4D-BC08-E4C40DFD1977}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="49940" yWindow="1220" windowWidth="17140" windowHeight="16440" xr2:uid="{C7960828-FB8E-D249-A3D6-E774B381BD4F}"/>
+    <workbookView xWindow="49800" yWindow="1200" windowWidth="17140" windowHeight="16440" xr2:uid="{C7960828-FB8E-D249-A3D6-E774B381BD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="48">
   <si>
     <t>#</t>
   </si>
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF419F5-3ABD-4143-B299-A81C3FCA57C8}">
-  <dimension ref="A1:L321"/>
+  <dimension ref="A1:L513"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B322" sqref="B322"/>
+    <sheetView tabSelected="1" topLeftCell="A486" workbookViewId="0">
+      <selection activeCell="B514" sqref="B514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12754,6 +12754,7302 @@
       </c>
       <c r="L321" s="2">
         <v>28.4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:12">
+      <c r="A322">
+        <v>2011</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1</v>
+      </c>
+      <c r="C322" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D322" s="2">
+        <v>271.8</v>
+      </c>
+      <c r="E322" s="2">
+        <v>99.8</v>
+      </c>
+      <c r="F322" s="2">
+        <v>4</v>
+      </c>
+      <c r="G322" s="2">
+        <v>171.9</v>
+      </c>
+      <c r="H322" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="I322" s="2">
+        <v>35</v>
+      </c>
+      <c r="J322" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="K322" s="4">
+        <v>1.1430555555555555</v>
+      </c>
+      <c r="L322" s="2">
+        <v>14.2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:12">
+      <c r="A323">
+        <v>2011</v>
+      </c>
+      <c r="B323" s="2">
+        <v>2</v>
+      </c>
+      <c r="C323" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D323" s="2">
+        <v>285.7</v>
+      </c>
+      <c r="E323" s="2">
+        <v>96</v>
+      </c>
+      <c r="F323" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G323" s="2">
+        <v>189.7</v>
+      </c>
+      <c r="H323" s="2">
+        <v>69</v>
+      </c>
+      <c r="I323" s="2">
+        <v>44</v>
+      </c>
+      <c r="J323" s="2">
+        <v>36</v>
+      </c>
+      <c r="K323" s="4">
+        <v>1.1381944444444445</v>
+      </c>
+      <c r="L323" s="2">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="324" spans="1:12">
+      <c r="A324">
+        <v>2011</v>
+      </c>
+      <c r="B324" s="2">
+        <v>3</v>
+      </c>
+      <c r="C324" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D324" s="2">
+        <v>288.89999999999998</v>
+      </c>
+      <c r="E324" s="2">
+        <v>92.6</v>
+      </c>
+      <c r="F324" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G324" s="2">
+        <v>196.2</v>
+      </c>
+      <c r="H324" s="2">
+        <v>68.8</v>
+      </c>
+      <c r="I324" s="2">
+        <v>48</v>
+      </c>
+      <c r="J324" s="2">
+        <v>32.1</v>
+      </c>
+      <c r="K324" s="4">
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="L324" s="2">
+        <v>16.600000000000001</v>
+      </c>
+    </row>
+    <row r="325" spans="1:12">
+      <c r="A325">
+        <v>2011</v>
+      </c>
+      <c r="B325" s="2">
+        <v>4</v>
+      </c>
+      <c r="C325" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D325" s="2">
+        <v>308.2</v>
+      </c>
+      <c r="E325" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="F325" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G325" s="2">
+        <v>230.9</v>
+      </c>
+      <c r="H325" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I325" s="2">
+        <v>41</v>
+      </c>
+      <c r="J325" s="2">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="K325" s="4">
+        <v>1.16875</v>
+      </c>
+      <c r="L325" s="2">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:12">
+      <c r="A326">
+        <v>2011</v>
+      </c>
+      <c r="B326" s="2">
+        <v>5</v>
+      </c>
+      <c r="C326" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D326" s="2">
+        <v>312.10000000000002</v>
+      </c>
+      <c r="E326" s="2">
+        <v>111.1</v>
+      </c>
+      <c r="F326" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G326" s="2">
+        <v>201</v>
+      </c>
+      <c r="H326" s="2">
+        <v>69.599999999999994</v>
+      </c>
+      <c r="I326" s="2">
+        <v>35</v>
+      </c>
+      <c r="J326" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K326" s="4">
+        <v>1.2159722222222222</v>
+      </c>
+      <c r="L326" s="2">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:12">
+      <c r="A327">
+        <v>2011</v>
+      </c>
+      <c r="B327" s="2">
+        <v>6</v>
+      </c>
+      <c r="C327" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D327" s="2">
+        <v>313</v>
+      </c>
+      <c r="E327" s="2">
+        <v>104.2</v>
+      </c>
+      <c r="F327" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G327" s="2">
+        <v>208.8</v>
+      </c>
+      <c r="H327" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="I327" s="2">
+        <v>31</v>
+      </c>
+      <c r="J327" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K327" s="4">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="L327" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="328" spans="1:12">
+      <c r="A328">
+        <v>2011</v>
+      </c>
+      <c r="B328" s="2">
+        <v>7</v>
+      </c>
+      <c r="C328" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D328" s="2">
+        <v>316.2</v>
+      </c>
+      <c r="E328" s="2">
+        <v>104.7</v>
+      </c>
+      <c r="F328" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G328" s="2">
+        <v>211.6</v>
+      </c>
+      <c r="H328" s="2">
+        <v>85</v>
+      </c>
+      <c r="I328" s="2">
+        <v>45</v>
+      </c>
+      <c r="J328" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="K328" s="4">
+        <v>1.2368055555555555</v>
+      </c>
+      <c r="L328" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="329" spans="1:12">
+      <c r="A329">
+        <v>2011</v>
+      </c>
+      <c r="B329" s="2">
+        <v>8</v>
+      </c>
+      <c r="C329" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D329" s="2">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="E329" s="2">
+        <v>112.6</v>
+      </c>
+      <c r="F329" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G329" s="2">
+        <v>212.3</v>
+      </c>
+      <c r="H329" s="2">
+        <v>85.7</v>
+      </c>
+      <c r="I329" s="2">
+        <v>50</v>
+      </c>
+      <c r="J329" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="K329" s="4">
+        <v>1.1937499999999999</v>
+      </c>
+      <c r="L329" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:12">
+      <c r="A330">
+        <v>2011</v>
+      </c>
+      <c r="B330" s="2">
+        <v>9</v>
+      </c>
+      <c r="C330" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D330" s="2">
+        <v>332.2</v>
+      </c>
+      <c r="E330" s="2">
+        <v>112.3</v>
+      </c>
+      <c r="F330" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G330" s="2">
+        <v>219.9</v>
+      </c>
+      <c r="H330" s="2">
+        <v>74.8</v>
+      </c>
+      <c r="I330" s="2">
+        <v>33</v>
+      </c>
+      <c r="J330" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K330" s="4">
+        <v>1.340972222222222</v>
+      </c>
+      <c r="L330" s="2">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:12">
+      <c r="A331">
+        <v>2011</v>
+      </c>
+      <c r="B331" s="2">
+        <v>10</v>
+      </c>
+      <c r="C331" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D331" s="2">
+        <v>332.4</v>
+      </c>
+      <c r="E331" s="2">
+        <v>147.4</v>
+      </c>
+      <c r="F331" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G331" s="2">
+        <v>184.9</v>
+      </c>
+      <c r="H331" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I331" s="2">
+        <v>32</v>
+      </c>
+      <c r="J331" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="K331" s="4">
+        <v>1.2916666666666667</v>
+      </c>
+      <c r="L331" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:12">
+      <c r="A332">
+        <v>2011</v>
+      </c>
+      <c r="B332" s="2">
+        <v>11</v>
+      </c>
+      <c r="C332" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D332" s="2">
+        <v>333.3</v>
+      </c>
+      <c r="E332" s="2">
+        <v>132</v>
+      </c>
+      <c r="F332" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G332" s="2">
+        <v>201.3</v>
+      </c>
+      <c r="H332" s="2">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="I332" s="2">
+        <v>29</v>
+      </c>
+      <c r="J332" s="2">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="K332" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L332" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:12">
+      <c r="A333">
+        <v>2011</v>
+      </c>
+      <c r="B333" s="2">
+        <v>12</v>
+      </c>
+      <c r="C333" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D333" s="2">
+        <v>333.4</v>
+      </c>
+      <c r="E333" s="2">
+        <v>97</v>
+      </c>
+      <c r="F333" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G333" s="2">
+        <v>236.4</v>
+      </c>
+      <c r="H333" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="I333" s="2">
+        <v>34</v>
+      </c>
+      <c r="J333" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="K333" s="4">
+        <v>1.1708333333333334</v>
+      </c>
+      <c r="L333" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="334" spans="1:12">
+      <c r="A334">
+        <v>2011</v>
+      </c>
+      <c r="B334" s="2">
+        <v>13</v>
+      </c>
+      <c r="C334" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D334" s="2">
+        <v>339.8</v>
+      </c>
+      <c r="E334" s="2">
+        <v>117.8</v>
+      </c>
+      <c r="F334" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G334" s="2">
+        <v>222.1</v>
+      </c>
+      <c r="H334" s="2">
+        <v>87.4</v>
+      </c>
+      <c r="I334" s="2">
+        <v>41</v>
+      </c>
+      <c r="J334" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K334" s="4">
+        <v>1.2555555555555555</v>
+      </c>
+      <c r="L334" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="335" spans="1:12">
+      <c r="A335">
+        <v>2011</v>
+      </c>
+      <c r="B335" s="2">
+        <v>14</v>
+      </c>
+      <c r="C335" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D335" s="2">
+        <v>343.2</v>
+      </c>
+      <c r="E335" s="2">
+        <v>99.1</v>
+      </c>
+      <c r="F335" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G335" s="2">
+        <v>244.1</v>
+      </c>
+      <c r="H335" s="2">
+        <v>88.4</v>
+      </c>
+      <c r="I335" s="2">
+        <v>42</v>
+      </c>
+      <c r="J335" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K335" s="4">
+        <v>1.23125</v>
+      </c>
+      <c r="L335" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:12">
+      <c r="A336">
+        <v>2011</v>
+      </c>
+      <c r="B336" s="2">
+        <v>15</v>
+      </c>
+      <c r="C336" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D336" s="2">
+        <v>345.2</v>
+      </c>
+      <c r="E336" s="2">
+        <v>95.6</v>
+      </c>
+      <c r="F336" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G336" s="2">
+        <v>249.6</v>
+      </c>
+      <c r="H336" s="2">
+        <v>83.7</v>
+      </c>
+      <c r="I336" s="2">
+        <v>41</v>
+      </c>
+      <c r="J336" s="2">
+        <v>33.6</v>
+      </c>
+      <c r="K336" s="4">
+        <v>1.2437500000000001</v>
+      </c>
+      <c r="L336" s="2">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="337" spans="1:12">
+      <c r="A337">
+        <v>2011</v>
+      </c>
+      <c r="B337" s="2">
+        <v>16</v>
+      </c>
+      <c r="C337" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D337" s="2">
+        <v>346.6</v>
+      </c>
+      <c r="E337" s="2">
+        <v>122.2</v>
+      </c>
+      <c r="F337" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G337" s="2">
+        <v>224.4</v>
+      </c>
+      <c r="H337" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="I337" s="2">
+        <v>32</v>
+      </c>
+      <c r="J337" s="2">
+        <v>49.2</v>
+      </c>
+      <c r="K337" s="4">
+        <v>1.211111111111111</v>
+      </c>
+      <c r="L337" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="338" spans="1:12">
+      <c r="A338">
+        <v>2011</v>
+      </c>
+      <c r="B338" s="2">
+        <v>17</v>
+      </c>
+      <c r="C338" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D338" s="2">
+        <v>350.4</v>
+      </c>
+      <c r="E338" s="2">
+        <v>96.4</v>
+      </c>
+      <c r="F338" s="2">
+        <v>4</v>
+      </c>
+      <c r="G338" s="2">
+        <v>254.1</v>
+      </c>
+      <c r="H338" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="I338" s="2">
+        <v>33</v>
+      </c>
+      <c r="J338" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="K338" s="4">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="L338" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:12">
+      <c r="A339">
+        <v>2011</v>
+      </c>
+      <c r="B339" s="2">
+        <v>18</v>
+      </c>
+      <c r="C339" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D339" s="2">
+        <v>355.1</v>
+      </c>
+      <c r="E339" s="2">
+        <v>124.1</v>
+      </c>
+      <c r="F339" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G339" s="2">
+        <v>231</v>
+      </c>
+      <c r="H339" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="I339" s="2">
+        <v>42</v>
+      </c>
+      <c r="J339" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="K339" s="4">
+        <v>1.3506944444444444</v>
+      </c>
+      <c r="L339" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="340" spans="1:12">
+      <c r="A340">
+        <v>2011</v>
+      </c>
+      <c r="B340" s="2">
+        <v>19</v>
+      </c>
+      <c r="C340" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D340" s="2">
+        <v>355.1</v>
+      </c>
+      <c r="E340" s="2">
+        <v>128.30000000000001</v>
+      </c>
+      <c r="F340" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G340" s="2">
+        <v>226.8</v>
+      </c>
+      <c r="H340" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="I340" s="2">
+        <v>28</v>
+      </c>
+      <c r="J340" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="K340" s="4">
+        <v>1.3368055555555556</v>
+      </c>
+      <c r="L340" s="2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="341" spans="1:12">
+      <c r="A341">
+        <v>2011</v>
+      </c>
+      <c r="B341" s="2">
+        <v>20</v>
+      </c>
+      <c r="C341" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D341" s="2">
+        <v>357.8</v>
+      </c>
+      <c r="E341" s="2">
+        <v>126.3</v>
+      </c>
+      <c r="F341" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G341" s="2">
+        <v>231.5</v>
+      </c>
+      <c r="H341" s="2">
+        <v>93.1</v>
+      </c>
+      <c r="I341" s="2">
+        <v>41</v>
+      </c>
+      <c r="J341" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K341" s="4">
+        <v>1.3361111111111112</v>
+      </c>
+      <c r="L341" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:12">
+      <c r="A342">
+        <v>2011</v>
+      </c>
+      <c r="B342" s="2">
+        <v>21</v>
+      </c>
+      <c r="C342" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D342" s="2">
+        <v>358.2</v>
+      </c>
+      <c r="E342" s="2">
+        <v>107</v>
+      </c>
+      <c r="F342" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G342" s="2">
+        <v>251.2</v>
+      </c>
+      <c r="H342" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="I342" s="2">
+        <v>50</v>
+      </c>
+      <c r="J342" s="2">
+        <v>44.2</v>
+      </c>
+      <c r="K342" s="4">
+        <v>1.3083333333333333</v>
+      </c>
+      <c r="L342" s="2">
+        <v>28.1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:12">
+      <c r="A343">
+        <v>2011</v>
+      </c>
+      <c r="B343" s="2">
+        <v>22</v>
+      </c>
+      <c r="C343" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D343" s="2">
+        <v>358.4</v>
+      </c>
+      <c r="E343" s="2">
+        <v>152.1</v>
+      </c>
+      <c r="F343" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G343" s="2">
+        <v>206.3</v>
+      </c>
+      <c r="H343" s="2">
+        <v>87.3</v>
+      </c>
+      <c r="I343" s="2">
+        <v>39</v>
+      </c>
+      <c r="J343" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="K343" s="4">
+        <v>1.3305555555555555</v>
+      </c>
+      <c r="L343" s="2">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:12">
+      <c r="A344">
+        <v>2011</v>
+      </c>
+      <c r="B344" s="2">
+        <v>23</v>
+      </c>
+      <c r="C344" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D344" s="2">
+        <v>367.6</v>
+      </c>
+      <c r="E344" s="2">
+        <v>128.1</v>
+      </c>
+      <c r="F344" s="2">
+        <v>5</v>
+      </c>
+      <c r="G344" s="2">
+        <v>239.4</v>
+      </c>
+      <c r="H344" s="2">
+        <v>82.1</v>
+      </c>
+      <c r="I344" s="2">
+        <v>41</v>
+      </c>
+      <c r="J344" s="2">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="K344" s="4">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="L344" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:12">
+      <c r="A345">
+        <v>2011</v>
+      </c>
+      <c r="B345" s="2">
+        <v>24</v>
+      </c>
+      <c r="C345" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D345" s="2">
+        <v>368.4</v>
+      </c>
+      <c r="E345" s="2">
+        <v>108.6</v>
+      </c>
+      <c r="F345" s="2">
+        <v>5</v>
+      </c>
+      <c r="G345" s="2">
+        <v>259.8</v>
+      </c>
+      <c r="H345" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="I345" s="2">
+        <v>33</v>
+      </c>
+      <c r="J345" s="2">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="K345" s="4">
+        <v>1.1847222222222222</v>
+      </c>
+      <c r="L345" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="346" spans="1:12">
+      <c r="A346">
+        <v>2011</v>
+      </c>
+      <c r="B346" s="2">
+        <v>25</v>
+      </c>
+      <c r="C346" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D346" s="2">
+        <v>371.1</v>
+      </c>
+      <c r="E346" s="2">
+        <v>139</v>
+      </c>
+      <c r="F346" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G346" s="2">
+        <v>232.1</v>
+      </c>
+      <c r="H346" s="2">
+        <v>90.4</v>
+      </c>
+      <c r="I346" s="2">
+        <v>30</v>
+      </c>
+      <c r="J346" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K346" s="4">
+        <v>1.242361111111111</v>
+      </c>
+      <c r="L346" s="2">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12">
+      <c r="A347">
+        <v>2011</v>
+      </c>
+      <c r="B347" s="2">
+        <v>26</v>
+      </c>
+      <c r="C347" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D347" s="2">
+        <v>371.2</v>
+      </c>
+      <c r="E347" s="2">
+        <v>143.9</v>
+      </c>
+      <c r="F347" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G347" s="2">
+        <v>227.2</v>
+      </c>
+      <c r="H347" s="2">
+        <v>103.9</v>
+      </c>
+      <c r="I347" s="2">
+        <v>29</v>
+      </c>
+      <c r="J347" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="K347" s="4">
+        <v>1.4069444444444443</v>
+      </c>
+      <c r="L347" s="2">
+        <v>26.9</v>
+      </c>
+    </row>
+    <row r="348" spans="1:12">
+      <c r="A348">
+        <v>2011</v>
+      </c>
+      <c r="B348" s="2">
+        <v>27</v>
+      </c>
+      <c r="C348" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D348" s="2">
+        <v>376.4</v>
+      </c>
+      <c r="E348" s="2">
+        <v>121.2</v>
+      </c>
+      <c r="F348" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G348" s="2">
+        <v>255.1</v>
+      </c>
+      <c r="H348" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="I348" s="2">
+        <v>48</v>
+      </c>
+      <c r="J348" s="2">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="K348" s="4">
+        <v>1.2708333333333333</v>
+      </c>
+      <c r="L348" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="349" spans="1:12">
+      <c r="A349">
+        <v>2011</v>
+      </c>
+      <c r="B349" s="2">
+        <v>28</v>
+      </c>
+      <c r="C349" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D349" s="2">
+        <v>377.6</v>
+      </c>
+      <c r="E349" s="2">
+        <v>130.80000000000001</v>
+      </c>
+      <c r="F349" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G349" s="2">
+        <v>246.8</v>
+      </c>
+      <c r="H349" s="2">
+        <v>98.3</v>
+      </c>
+      <c r="I349" s="2">
+        <v>31</v>
+      </c>
+      <c r="J349" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="K349" s="4">
+        <v>1.2388888888888889</v>
+      </c>
+      <c r="L349" s="2">
+        <v>26.8</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12">
+      <c r="A350">
+        <v>2011</v>
+      </c>
+      <c r="B350" s="2">
+        <v>29</v>
+      </c>
+      <c r="C350" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D350" s="2">
+        <v>387.6</v>
+      </c>
+      <c r="E350" s="2">
+        <v>136.1</v>
+      </c>
+      <c r="F350" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G350" s="2">
+        <v>251.4</v>
+      </c>
+      <c r="H350" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="I350" s="2">
+        <v>39</v>
+      </c>
+      <c r="J350" s="2">
+        <v>42</v>
+      </c>
+      <c r="K350" s="4">
+        <v>1.2590277777777776</v>
+      </c>
+      <c r="L350" s="2">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:12">
+      <c r="A351">
+        <v>2011</v>
+      </c>
+      <c r="B351" s="2">
+        <v>30</v>
+      </c>
+      <c r="C351" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D351" s="2">
+        <v>394.4</v>
+      </c>
+      <c r="E351" s="2">
+        <v>156.1</v>
+      </c>
+      <c r="F351" s="2">
+        <v>5</v>
+      </c>
+      <c r="G351" s="2">
+        <v>238.4</v>
+      </c>
+      <c r="H351" s="2">
+        <v>97.2</v>
+      </c>
+      <c r="I351" s="2">
+        <v>23</v>
+      </c>
+      <c r="J351" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="K351" s="4">
+        <v>1.2902777777777776</v>
+      </c>
+      <c r="L351" s="2">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="352" spans="1:12">
+      <c r="A352">
+        <v>2011</v>
+      </c>
+      <c r="B352" s="2">
+        <v>31</v>
+      </c>
+      <c r="C352" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D352" s="2">
+        <v>411.1</v>
+      </c>
+      <c r="E352" s="2">
+        <v>117.1</v>
+      </c>
+      <c r="F352" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G352" s="2">
+        <v>293.89999999999998</v>
+      </c>
+      <c r="H352" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="I352" s="2">
+        <v>40</v>
+      </c>
+      <c r="J352" s="2">
+        <v>43.1</v>
+      </c>
+      <c r="K352" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L352" s="2">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="353" spans="1:12">
+      <c r="A353">
+        <v>2011</v>
+      </c>
+      <c r="B353" s="2">
+        <v>32</v>
+      </c>
+      <c r="C353" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D353" s="2">
+        <v>411.6</v>
+      </c>
+      <c r="E353" s="2">
+        <v>111.8</v>
+      </c>
+      <c r="F353" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G353" s="2">
+        <v>299.8</v>
+      </c>
+      <c r="H353" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I353" s="2">
+        <v>29</v>
+      </c>
+      <c r="J353" s="2">
+        <v>42.6</v>
+      </c>
+      <c r="K353" s="4">
+        <v>1.2298611111111111</v>
+      </c>
+      <c r="L353" s="2">
+        <v>22.4</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12">
+      <c r="A354">
+        <v>2010</v>
+      </c>
+      <c r="B354" s="2">
+        <v>1</v>
+      </c>
+      <c r="C354" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D354" s="2">
+        <v>272.5</v>
+      </c>
+      <c r="E354" s="2">
+        <v>93.8</v>
+      </c>
+      <c r="F354" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G354" s="2">
+        <v>178.8</v>
+      </c>
+      <c r="H354" s="2">
+        <v>76.3</v>
+      </c>
+      <c r="I354" s="2">
+        <v>47</v>
+      </c>
+      <c r="J354" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K354" s="4">
+        <v>1.1229166666666666</v>
+      </c>
+      <c r="L354" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12">
+      <c r="A355">
+        <v>2010</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2</v>
+      </c>
+      <c r="C355" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D355" s="2">
+        <v>276.8</v>
+      </c>
+      <c r="E355" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="F355" s="2">
+        <v>3</v>
+      </c>
+      <c r="G355" s="2">
+        <v>214.1</v>
+      </c>
+      <c r="H355" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I355" s="2">
+        <v>48</v>
+      </c>
+      <c r="J355" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K355" s="4">
+        <v>1.1895833333333334</v>
+      </c>
+      <c r="L355" s="2">
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12">
+      <c r="A356">
+        <v>2010</v>
+      </c>
+      <c r="B356" s="2">
+        <v>3</v>
+      </c>
+      <c r="C356" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D356" s="2">
+        <v>291.39999999999998</v>
+      </c>
+      <c r="E356" s="2">
+        <v>90.9</v>
+      </c>
+      <c r="F356" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G356" s="2">
+        <v>200.6</v>
+      </c>
+      <c r="H356" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I356" s="2">
+        <v>40</v>
+      </c>
+      <c r="J356" s="2">
+        <v>37</v>
+      </c>
+      <c r="K356" s="4">
+        <v>1.1847222222222222</v>
+      </c>
+      <c r="L356" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12">
+      <c r="A357">
+        <v>2010</v>
+      </c>
+      <c r="B357" s="2">
+        <v>4</v>
+      </c>
+      <c r="C357" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D357" s="2">
+        <v>306.2</v>
+      </c>
+      <c r="E357" s="2">
+        <v>112.3</v>
+      </c>
+      <c r="F357" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G357" s="2">
+        <v>193.9</v>
+      </c>
+      <c r="H357" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="I357" s="2">
+        <v>33</v>
+      </c>
+      <c r="J357" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="K357" s="4">
+        <v>1.1965277777777776</v>
+      </c>
+      <c r="L357" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="358" spans="1:12">
+      <c r="A358">
+        <v>2010</v>
+      </c>
+      <c r="B358" s="2">
+        <v>5</v>
+      </c>
+      <c r="C358" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D358" s="2">
+        <v>309.10000000000002</v>
+      </c>
+      <c r="E358" s="2">
+        <v>114.9</v>
+      </c>
+      <c r="F358" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G358" s="2">
+        <v>194.2</v>
+      </c>
+      <c r="H358" s="2">
+        <v>67.2</v>
+      </c>
+      <c r="I358" s="2">
+        <v>47</v>
+      </c>
+      <c r="J358" s="2">
+        <v>36.200000000000003</v>
+      </c>
+      <c r="K358" s="4">
+        <v>1.1986111111111111</v>
+      </c>
+      <c r="L358" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12">
+      <c r="A359">
+        <v>2010</v>
+      </c>
+      <c r="B359" s="2">
+        <v>6</v>
+      </c>
+      <c r="C359" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D359" s="2">
+        <v>309.3</v>
+      </c>
+      <c r="E359" s="2">
+        <v>100.1</v>
+      </c>
+      <c r="F359" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G359" s="2">
+        <v>209.2</v>
+      </c>
+      <c r="H359" s="2">
+        <v>85</v>
+      </c>
+      <c r="I359" s="2">
+        <v>39</v>
+      </c>
+      <c r="J359" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K359" s="4">
+        <v>1.2277777777777776</v>
+      </c>
+      <c r="L359" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="360" spans="1:12">
+      <c r="A360">
+        <v>2010</v>
+      </c>
+      <c r="B360" s="2">
+        <v>7</v>
+      </c>
+      <c r="C360" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D360" s="2">
+        <v>310.60000000000002</v>
+      </c>
+      <c r="E360" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="F360" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G360" s="2">
+        <v>209.3</v>
+      </c>
+      <c r="H360" s="2">
+        <v>80.5</v>
+      </c>
+      <c r="I360" s="2">
+        <v>47</v>
+      </c>
+      <c r="J360" s="2">
+        <v>31.7</v>
+      </c>
+      <c r="K360" s="4">
+        <v>1.1444444444444444</v>
+      </c>
+      <c r="L360" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12">
+      <c r="A361">
+        <v>2010</v>
+      </c>
+      <c r="B361" s="2">
+        <v>8</v>
+      </c>
+      <c r="C361" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D361" s="2">
+        <v>313.10000000000002</v>
+      </c>
+      <c r="E361" s="2">
+        <v>102.2</v>
+      </c>
+      <c r="F361" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G361" s="2">
+        <v>210.9</v>
+      </c>
+      <c r="H361" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="I361" s="2">
+        <v>31</v>
+      </c>
+      <c r="J361" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K361" s="4">
+        <v>1.2465277777777779</v>
+      </c>
+      <c r="L361" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:12">
+      <c r="A362">
+        <v>2010</v>
+      </c>
+      <c r="B362" s="2">
+        <v>9</v>
+      </c>
+      <c r="C362" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D362" s="2">
+        <v>314.3</v>
+      </c>
+      <c r="E362" s="2">
+        <v>90.1</v>
+      </c>
+      <c r="F362" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G362" s="2">
+        <v>224.2</v>
+      </c>
+      <c r="H362" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="I362" s="2">
+        <v>34</v>
+      </c>
+      <c r="J362" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K362" s="4">
+        <v>1.2701388888888889</v>
+      </c>
+      <c r="L362" s="2">
+        <v>17.899999999999999</v>
+      </c>
+    </row>
+    <row r="363" spans="1:12">
+      <c r="A363">
+        <v>2010</v>
+      </c>
+      <c r="B363" s="2">
+        <v>10</v>
+      </c>
+      <c r="C363" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D363" s="2">
+        <v>318.89999999999998</v>
+      </c>
+      <c r="E363" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="F363" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G363" s="2">
+        <v>224.9</v>
+      </c>
+      <c r="H363" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I363" s="2">
+        <v>27</v>
+      </c>
+      <c r="J363" s="2">
+        <v>38</v>
+      </c>
+      <c r="K363" s="4">
+        <v>1.2465277777777779</v>
+      </c>
+      <c r="L363" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="364" spans="1:12">
+      <c r="A364">
+        <v>2010</v>
+      </c>
+      <c r="B364" s="2">
+        <v>11</v>
+      </c>
+      <c r="C364" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D364" s="2">
+        <v>322.89999999999998</v>
+      </c>
+      <c r="E364" s="2">
+        <v>133.6</v>
+      </c>
+      <c r="F364" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G364" s="2">
+        <v>189.2</v>
+      </c>
+      <c r="H364" s="2">
+        <v>85.6</v>
+      </c>
+      <c r="I364" s="2">
+        <v>47</v>
+      </c>
+      <c r="J364" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="K364" s="4">
+        <v>1.2069444444444444</v>
+      </c>
+      <c r="L364" s="2">
+        <v>23.2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:12">
+      <c r="A365">
+        <v>2010</v>
+      </c>
+      <c r="B365" s="2">
+        <v>12</v>
+      </c>
+      <c r="C365" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D365" s="2">
+        <v>327.3</v>
+      </c>
+      <c r="E365" s="2">
+        <v>110.4</v>
+      </c>
+      <c r="F365" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G365" s="2">
+        <v>216.9</v>
+      </c>
+      <c r="H365" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="I365" s="2">
+        <v>38</v>
+      </c>
+      <c r="J365" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K365" s="4">
+        <v>1.1979166666666667</v>
+      </c>
+      <c r="L365" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="366" spans="1:12">
+      <c r="A366">
+        <v>2010</v>
+      </c>
+      <c r="B366" s="2">
+        <v>13</v>
+      </c>
+      <c r="C366" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D366" s="2">
+        <v>329.7</v>
+      </c>
+      <c r="E366" s="2">
+        <v>96.7</v>
+      </c>
+      <c r="F366" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G366" s="2">
+        <v>233</v>
+      </c>
+      <c r="H366" s="2">
+        <v>90.2</v>
+      </c>
+      <c r="I366" s="2">
+        <v>36</v>
+      </c>
+      <c r="J366" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K366" s="4">
+        <v>1.3145833333333334</v>
+      </c>
+      <c r="L366" s="2">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="367" spans="1:12">
+      <c r="A367">
+        <v>2010</v>
+      </c>
+      <c r="B367" s="2">
+        <v>14</v>
+      </c>
+      <c r="C367" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D367" s="2">
+        <v>330.2</v>
+      </c>
+      <c r="E367" s="2">
+        <v>110.2</v>
+      </c>
+      <c r="F367" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G367" s="2">
+        <v>219.9</v>
+      </c>
+      <c r="H367" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I367" s="2">
+        <v>39</v>
+      </c>
+      <c r="J367" s="2">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="K367" s="4">
+        <v>1.2590277777777776</v>
+      </c>
+      <c r="L367" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="368" spans="1:12">
+      <c r="A368">
+        <v>2010</v>
+      </c>
+      <c r="B368" s="2">
+        <v>15</v>
+      </c>
+      <c r="C368" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D368" s="2">
+        <v>332</v>
+      </c>
+      <c r="E368" s="2">
+        <v>115.2</v>
+      </c>
+      <c r="F368" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G368" s="2">
+        <v>216.8</v>
+      </c>
+      <c r="H368" s="2">
+        <v>85.2</v>
+      </c>
+      <c r="I368" s="2">
+        <v>27</v>
+      </c>
+      <c r="J368" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K368" s="4">
+        <v>1.1986111111111111</v>
+      </c>
+      <c r="L368" s="2">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:12">
+      <c r="A369">
+        <v>2010</v>
+      </c>
+      <c r="B369" s="2">
+        <v>16</v>
+      </c>
+      <c r="C369" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D369" s="2">
+        <v>332.4</v>
+      </c>
+      <c r="E369" s="2">
+        <v>105.9</v>
+      </c>
+      <c r="F369" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G369" s="2">
+        <v>226.6</v>
+      </c>
+      <c r="H369" s="2">
+        <v>82.2</v>
+      </c>
+      <c r="I369" s="2">
+        <v>31</v>
+      </c>
+      <c r="J369" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K369" s="4">
+        <v>1.1743055555555555</v>
+      </c>
+      <c r="L369" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="370" spans="1:12">
+      <c r="A370">
+        <v>2010</v>
+      </c>
+      <c r="B370" s="2">
+        <v>17</v>
+      </c>
+      <c r="C370" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D370" s="2">
+        <v>332.7</v>
+      </c>
+      <c r="E370" s="2">
+        <v>131.69999999999999</v>
+      </c>
+      <c r="F370" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G370" s="2">
+        <v>201</v>
+      </c>
+      <c r="H370" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I370" s="2">
+        <v>26</v>
+      </c>
+      <c r="J370" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="K370" s="4">
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="L370" s="2">
+        <v>19.899999999999999</v>
+      </c>
+    </row>
+    <row r="371" spans="1:12">
+      <c r="A371">
+        <v>2010</v>
+      </c>
+      <c r="B371" s="2">
+        <v>18</v>
+      </c>
+      <c r="C371" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D371" s="2">
+        <v>335.9</v>
+      </c>
+      <c r="E371" s="2">
+        <v>123.8</v>
+      </c>
+      <c r="F371" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G371" s="2">
+        <v>212.1</v>
+      </c>
+      <c r="H371" s="2">
+        <v>81</v>
+      </c>
+      <c r="I371" s="2">
+        <v>31</v>
+      </c>
+      <c r="J371" s="2">
+        <v>38</v>
+      </c>
+      <c r="K371" s="4">
+        <v>1.3576388888888891</v>
+      </c>
+      <c r="L371" s="2">
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:12">
+      <c r="A372">
+        <v>2010</v>
+      </c>
+      <c r="B372" s="2">
+        <v>19</v>
+      </c>
+      <c r="C372" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D372" s="2">
+        <v>336.8</v>
+      </c>
+      <c r="E372" s="2">
+        <v>113.1</v>
+      </c>
+      <c r="F372" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G372" s="2">
+        <v>223.6</v>
+      </c>
+      <c r="H372" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I372" s="2">
+        <v>43</v>
+      </c>
+      <c r="J372" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K372" s="4">
+        <v>1.2208333333333334</v>
+      </c>
+      <c r="L372" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="373" spans="1:12">
+      <c r="A373">
+        <v>2010</v>
+      </c>
+      <c r="B373" s="2">
+        <v>20</v>
+      </c>
+      <c r="C373" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D373" s="2">
+        <v>341.6</v>
+      </c>
+      <c r="E373" s="2">
+        <v>127</v>
+      </c>
+      <c r="F373" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G373" s="2">
+        <v>214.6</v>
+      </c>
+      <c r="H373" s="2">
+        <v>91.7</v>
+      </c>
+      <c r="I373" s="2">
+        <v>30</v>
+      </c>
+      <c r="J373" s="2">
+        <v>39</v>
+      </c>
+      <c r="K373" s="4">
+        <v>1.2722222222222224</v>
+      </c>
+      <c r="L373" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="374" spans="1:12">
+      <c r="A374">
+        <v>2010</v>
+      </c>
+      <c r="B374" s="2">
+        <v>21</v>
+      </c>
+      <c r="C374" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D374" s="2">
+        <v>344.1</v>
+      </c>
+      <c r="E374" s="2">
+        <v>124.9</v>
+      </c>
+      <c r="F374" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G374" s="2">
+        <v>219.2</v>
+      </c>
+      <c r="H374" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="I374" s="2">
+        <v>44</v>
+      </c>
+      <c r="J374" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="K374" s="4">
+        <v>1.2777777777777779</v>
+      </c>
+      <c r="L374" s="2">
+        <v>23.1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:12">
+      <c r="A375">
+        <v>2010</v>
+      </c>
+      <c r="B375" s="2">
+        <v>22</v>
+      </c>
+      <c r="C375" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D375" s="2">
+        <v>350.1</v>
+      </c>
+      <c r="E375" s="2">
+        <v>129.4</v>
+      </c>
+      <c r="F375" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G375" s="2">
+        <v>220.7</v>
+      </c>
+      <c r="H375" s="2">
+        <v>84.8</v>
+      </c>
+      <c r="I375" s="2">
+        <v>29</v>
+      </c>
+      <c r="J375" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="K375" s="4">
+        <v>1.3569444444444445</v>
+      </c>
+      <c r="L375" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="376" spans="1:12">
+      <c r="A376">
+        <v>2010</v>
+      </c>
+      <c r="B376" s="2">
+        <v>23</v>
+      </c>
+      <c r="C376" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D376" s="2">
+        <v>351.8</v>
+      </c>
+      <c r="E376" s="2">
+        <v>108.4</v>
+      </c>
+      <c r="F376" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G376" s="2">
+        <v>243.4</v>
+      </c>
+      <c r="H376" s="2">
+        <v>92.8</v>
+      </c>
+      <c r="I376" s="2">
+        <v>35</v>
+      </c>
+      <c r="J376" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K376" s="4">
+        <v>1.2090277777777778</v>
+      </c>
+      <c r="L376" s="2">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:12">
+      <c r="A377">
+        <v>2010</v>
+      </c>
+      <c r="B377" s="2">
+        <v>24</v>
+      </c>
+      <c r="C377" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D377" s="2">
+        <v>361.6</v>
+      </c>
+      <c r="E377" s="2">
+        <v>169.6</v>
+      </c>
+      <c r="F377" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G377" s="2">
+        <v>192</v>
+      </c>
+      <c r="H377" s="2">
+        <v>92.6</v>
+      </c>
+      <c r="I377" s="2">
+        <v>27</v>
+      </c>
+      <c r="J377" s="2">
+        <v>43.2</v>
+      </c>
+      <c r="K377" s="4">
+        <v>1.3909722222222223</v>
+      </c>
+      <c r="L377" s="2">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="378" spans="1:12">
+      <c r="A378">
+        <v>2010</v>
+      </c>
+      <c r="B378" s="2">
+        <v>25</v>
+      </c>
+      <c r="C378" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D378" s="2">
+        <v>366.9</v>
+      </c>
+      <c r="E378" s="2">
+        <v>108</v>
+      </c>
+      <c r="F378" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G378" s="2">
+        <v>258.89999999999998</v>
+      </c>
+      <c r="H378" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="I378" s="2">
+        <v>36</v>
+      </c>
+      <c r="J378" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="K378" s="4">
+        <v>1.3083333333333333</v>
+      </c>
+      <c r="L378" s="2">
+        <v>19.600000000000001</v>
+      </c>
+    </row>
+    <row r="379" spans="1:12">
+      <c r="A379">
+        <v>2010</v>
+      </c>
+      <c r="B379" s="2">
+        <v>26</v>
+      </c>
+      <c r="C379" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D379" s="2">
+        <v>367.7</v>
+      </c>
+      <c r="E379" s="2">
+        <v>115.7</v>
+      </c>
+      <c r="F379" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G379" s="2">
+        <v>252</v>
+      </c>
+      <c r="H379" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="I379" s="2">
+        <v>40</v>
+      </c>
+      <c r="J379" s="2">
+        <v>43</v>
+      </c>
+      <c r="K379" s="4">
+        <v>1.4326388888888888</v>
+      </c>
+      <c r="L379" s="2">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="380" spans="1:12">
+      <c r="A380">
+        <v>2010</v>
+      </c>
+      <c r="B380" s="2">
+        <v>27</v>
+      </c>
+      <c r="C380" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D380" s="2">
+        <v>368.6</v>
+      </c>
+      <c r="E380" s="2">
+        <v>118.9</v>
+      </c>
+      <c r="F380" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G380" s="2">
+        <v>249.6</v>
+      </c>
+      <c r="H380" s="2">
+        <v>89.7</v>
+      </c>
+      <c r="I380" s="2">
+        <v>37</v>
+      </c>
+      <c r="J380" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="K380" s="4">
+        <v>1.3520833333333335</v>
+      </c>
+      <c r="L380" s="2">
+        <v>25.4</v>
+      </c>
+    </row>
+    <row r="381" spans="1:12">
+      <c r="A381">
+        <v>2010</v>
+      </c>
+      <c r="B381" s="2">
+        <v>28</v>
+      </c>
+      <c r="C381" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D381" s="2">
+        <v>371.8</v>
+      </c>
+      <c r="E381" s="2">
+        <v>121.6</v>
+      </c>
+      <c r="F381" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G381" s="2">
+        <v>250.2</v>
+      </c>
+      <c r="H381" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="I381" s="2">
+        <v>26</v>
+      </c>
+      <c r="J381" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="K381" s="4">
+        <v>1.1819444444444445</v>
+      </c>
+      <c r="L381" s="2">
+        <v>26.2</v>
+      </c>
+    </row>
+    <row r="382" spans="1:12">
+      <c r="A382">
+        <v>2010</v>
+      </c>
+      <c r="B382" s="2">
+        <v>29</v>
+      </c>
+      <c r="C382" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D382" s="2">
+        <v>373.6</v>
+      </c>
+      <c r="E382" s="2">
+        <v>145.19999999999999</v>
+      </c>
+      <c r="F382" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G382" s="2">
+        <v>228.4</v>
+      </c>
+      <c r="H382" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="I382" s="2">
+        <v>33</v>
+      </c>
+      <c r="J382" s="2">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="K382" s="4">
+        <v>1.4145833333333335</v>
+      </c>
+      <c r="L382" s="2">
+        <v>27.1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:12">
+      <c r="A383">
+        <v>2010</v>
+      </c>
+      <c r="B383" s="2">
+        <v>30</v>
+      </c>
+      <c r="C383" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D383" s="2">
+        <v>376.9</v>
+      </c>
+      <c r="E383" s="2">
+        <v>109.4</v>
+      </c>
+      <c r="F383" s="2">
+        <v>4</v>
+      </c>
+      <c r="G383" s="2">
+        <v>267.5</v>
+      </c>
+      <c r="H383" s="2">
+        <v>100.5</v>
+      </c>
+      <c r="I383" s="2">
+        <v>30</v>
+      </c>
+      <c r="J383" s="2">
+        <v>39.5</v>
+      </c>
+      <c r="K383" s="4">
+        <v>1.3069444444444445</v>
+      </c>
+      <c r="L383" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:12">
+      <c r="A384">
+        <v>2010</v>
+      </c>
+      <c r="B384" s="2">
+        <v>31</v>
+      </c>
+      <c r="C384" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D384" s="2">
+        <v>389.2</v>
+      </c>
+      <c r="E384" s="2">
+        <v>127.6</v>
+      </c>
+      <c r="F384" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G384" s="2">
+        <v>261.7</v>
+      </c>
+      <c r="H384" s="2">
+        <v>89.6</v>
+      </c>
+      <c r="I384" s="2">
+        <v>29</v>
+      </c>
+      <c r="J384" s="2">
+        <v>35</v>
+      </c>
+      <c r="K384" s="4">
+        <v>1.3708333333333333</v>
+      </c>
+      <c r="L384" s="2">
+        <v>23.6</v>
+      </c>
+    </row>
+    <row r="385" spans="1:12">
+      <c r="A385">
+        <v>2010</v>
+      </c>
+      <c r="B385" s="2">
+        <v>32</v>
+      </c>
+      <c r="C385" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D385" s="2">
+        <v>390.8</v>
+      </c>
+      <c r="E385" s="2">
+        <v>154.6</v>
+      </c>
+      <c r="F385" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G385" s="2">
+        <v>236.2</v>
+      </c>
+      <c r="H385" s="2">
+        <v>93</v>
+      </c>
+      <c r="I385" s="2">
+        <v>23</v>
+      </c>
+      <c r="J385" s="2">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="K385" s="4">
+        <v>1.3263888888888888</v>
+      </c>
+      <c r="L385" s="2">
+        <v>29.4</v>
+      </c>
+    </row>
+    <row r="386" spans="1:12">
+      <c r="A386">
+        <v>2009</v>
+      </c>
+      <c r="B386" s="2">
+        <v>1</v>
+      </c>
+      <c r="C386" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D386" s="2">
+        <v>252.3</v>
+      </c>
+      <c r="E386" s="2">
+        <v>98.6</v>
+      </c>
+      <c r="F386" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G386" s="2">
+        <v>153.69999999999999</v>
+      </c>
+      <c r="H386" s="2">
+        <v>58.8</v>
+      </c>
+      <c r="I386" s="2">
+        <v>32</v>
+      </c>
+      <c r="J386" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="K386" s="4">
+        <v>1.1930555555555555</v>
+      </c>
+      <c r="L386" s="2">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="387" spans="1:12">
+      <c r="A387">
+        <v>2009</v>
+      </c>
+      <c r="B387" s="2">
+        <v>2</v>
+      </c>
+      <c r="C387" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D387" s="2">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="E387" s="2">
+        <v>83.3</v>
+      </c>
+      <c r="F387" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G387" s="2">
+        <v>201.1</v>
+      </c>
+      <c r="H387" s="2">
+        <v>69</v>
+      </c>
+      <c r="I387" s="2">
+        <v>37</v>
+      </c>
+      <c r="J387" s="2">
+        <v>36</v>
+      </c>
+      <c r="K387" s="4">
+        <v>1.1229166666666666</v>
+      </c>
+      <c r="L387" s="2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="388" spans="1:12">
+      <c r="A388">
+        <v>2009</v>
+      </c>
+      <c r="B388" s="2">
+        <v>3</v>
+      </c>
+      <c r="C388" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D388" s="2">
+        <v>300.5</v>
+      </c>
+      <c r="E388" s="2">
+        <v>93.2</v>
+      </c>
+      <c r="F388" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G388" s="2">
+        <v>207.2</v>
+      </c>
+      <c r="H388" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I388" s="2">
+        <v>32</v>
+      </c>
+      <c r="J388" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K388" s="4">
+        <v>1.2895833333333333</v>
+      </c>
+      <c r="L388" s="2">
+        <v>16.3</v>
+      </c>
+    </row>
+    <row r="389" spans="1:12">
+      <c r="A389">
+        <v>2009</v>
+      </c>
+      <c r="B389" s="2">
+        <v>4</v>
+      </c>
+      <c r="C389" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D389" s="2">
+        <v>301.39999999999998</v>
+      </c>
+      <c r="E389" s="2">
+        <v>98.3</v>
+      </c>
+      <c r="F389" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G389" s="2">
+        <v>203.1</v>
+      </c>
+      <c r="H389" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I389" s="2">
+        <v>34</v>
+      </c>
+      <c r="J389" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="K389" s="4">
+        <v>1.1854166666666666</v>
+      </c>
+      <c r="L389" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="390" spans="1:12">
+      <c r="A390">
+        <v>2009</v>
+      </c>
+      <c r="B390" s="2">
+        <v>5</v>
+      </c>
+      <c r="C390" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D390" s="2">
+        <v>305.3</v>
+      </c>
+      <c r="E390" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="F390" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G390" s="2">
+        <v>215.4</v>
+      </c>
+      <c r="H390" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I390" s="2">
+        <v>47</v>
+      </c>
+      <c r="J390" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="K390" s="4">
+        <v>1.1812500000000001</v>
+      </c>
+      <c r="L390" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="391" spans="1:12">
+      <c r="A391">
+        <v>2009</v>
+      </c>
+      <c r="B391" s="2">
+        <v>6</v>
+      </c>
+      <c r="C391" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D391" s="2">
+        <v>305.5</v>
+      </c>
+      <c r="E391" s="2">
+        <v>87.1</v>
+      </c>
+      <c r="F391" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G391" s="2">
+        <v>218.4</v>
+      </c>
+      <c r="H391" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="I391" s="2">
+        <v>48</v>
+      </c>
+      <c r="J391" s="2">
+        <v>34.5</v>
+      </c>
+      <c r="K391" s="4">
+        <v>1.1458333333333333</v>
+      </c>
+      <c r="L391" s="2">
+        <v>19.5</v>
+      </c>
+    </row>
+    <row r="392" spans="1:12">
+      <c r="A392">
+        <v>2009</v>
+      </c>
+      <c r="B392" s="2">
+        <v>7</v>
+      </c>
+      <c r="C392" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D392" s="2">
+        <v>315</v>
+      </c>
+      <c r="E392" s="2">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="F392" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G392" s="2">
+        <v>186.3</v>
+      </c>
+      <c r="H392" s="2">
+        <v>75</v>
+      </c>
+      <c r="I392" s="2">
+        <v>39</v>
+      </c>
+      <c r="J392" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K392" s="4">
+        <v>1.2541666666666667</v>
+      </c>
+      <c r="L392" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:12">
+      <c r="A393">
+        <v>2009</v>
+      </c>
+      <c r="B393" s="2">
+        <v>8</v>
+      </c>
+      <c r="C393" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D393" s="2">
+        <v>315.8</v>
+      </c>
+      <c r="E393" s="2">
+        <v>124.8</v>
+      </c>
+      <c r="F393" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G393" s="2">
+        <v>191</v>
+      </c>
+      <c r="H393" s="2">
+        <v>71.7</v>
+      </c>
+      <c r="I393" s="2">
+        <v>31</v>
+      </c>
+      <c r="J393" s="2">
+        <v>35.5</v>
+      </c>
+      <c r="K393" s="4">
+        <v>1.2409722222222224</v>
+      </c>
+      <c r="L393" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:12">
+      <c r="A394">
+        <v>2009</v>
+      </c>
+      <c r="B394" s="2">
+        <v>9</v>
+      </c>
+      <c r="C394" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D394" s="2">
+        <v>315.89999999999998</v>
+      </c>
+      <c r="E394" s="2">
+        <v>90.5</v>
+      </c>
+      <c r="F394" s="2">
+        <v>4</v>
+      </c>
+      <c r="G394" s="2">
+        <v>225.4</v>
+      </c>
+      <c r="H394" s="2">
+        <v>83.5</v>
+      </c>
+      <c r="I394" s="2">
+        <v>42</v>
+      </c>
+      <c r="J394" s="2">
+        <v>35</v>
+      </c>
+      <c r="K394" s="4">
+        <v>1.1722222222222223</v>
+      </c>
+      <c r="L394" s="2">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12">
+      <c r="A395">
+        <v>2009</v>
+      </c>
+      <c r="B395" s="2">
+        <v>10</v>
+      </c>
+      <c r="C395" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D395" s="2">
+        <v>319.7</v>
+      </c>
+      <c r="E395" s="2">
+        <v>112.4</v>
+      </c>
+      <c r="F395" s="2">
+        <v>4</v>
+      </c>
+      <c r="G395" s="2">
+        <v>207.2</v>
+      </c>
+      <c r="H395" s="2">
+        <v>85.7</v>
+      </c>
+      <c r="I395" s="2">
+        <v>40</v>
+      </c>
+      <c r="J395" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K395" s="4">
+        <v>1.3076388888888888</v>
+      </c>
+      <c r="L395" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12">
+      <c r="A396">
+        <v>2009</v>
+      </c>
+      <c r="B396" s="2">
+        <v>11</v>
+      </c>
+      <c r="C396" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D396" s="2">
+        <v>320.2</v>
+      </c>
+      <c r="E396" s="2">
+        <v>110.5</v>
+      </c>
+      <c r="F396" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G396" s="2">
+        <v>209.7</v>
+      </c>
+      <c r="H396" s="2">
+        <v>81.7</v>
+      </c>
+      <c r="I396" s="2">
+        <v>31</v>
+      </c>
+      <c r="J396" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="K396" s="4">
+        <v>1.1340277777777776</v>
+      </c>
+      <c r="L396" s="2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="397" spans="1:12">
+      <c r="A397">
+        <v>2009</v>
+      </c>
+      <c r="B397" s="2">
+        <v>12</v>
+      </c>
+      <c r="C397" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D397" s="2">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="E397" s="2">
+        <v>104.7</v>
+      </c>
+      <c r="F397" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G397" s="2">
+        <v>216.4</v>
+      </c>
+      <c r="H397" s="2">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I397" s="2">
+        <v>44</v>
+      </c>
+      <c r="J397" s="2">
+        <v>33</v>
+      </c>
+      <c r="K397" s="4">
+        <v>1.3229166666666667</v>
+      </c>
+      <c r="L397" s="2">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:12">
+      <c r="A398">
+        <v>2009</v>
+      </c>
+      <c r="B398" s="2">
+        <v>13</v>
+      </c>
+      <c r="C398" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D398" s="2">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="E398" s="2">
+        <v>110.8</v>
+      </c>
+      <c r="F398" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G398" s="2">
+        <v>214.1</v>
+      </c>
+      <c r="H398" s="2">
+        <v>95.1</v>
+      </c>
+      <c r="I398" s="2">
+        <v>32</v>
+      </c>
+      <c r="J398" s="2">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="K398" s="4">
+        <v>1.1909722222222221</v>
+      </c>
+      <c r="L398" s="2">
+        <v>26.7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:12">
+      <c r="A399">
+        <v>2009</v>
+      </c>
+      <c r="B399" s="2">
+        <v>14</v>
+      </c>
+      <c r="C399" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D399" s="2">
+        <v>324.89999999999998</v>
+      </c>
+      <c r="E399" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="F399" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G399" s="2">
+        <v>217.9</v>
+      </c>
+      <c r="H399" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="I399" s="2">
+        <v>30</v>
+      </c>
+      <c r="J399" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K399" s="4">
+        <v>1.1708333333333334</v>
+      </c>
+      <c r="L399" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="400" spans="1:12">
+      <c r="A400">
+        <v>2009</v>
+      </c>
+      <c r="B400" s="2">
+        <v>15</v>
+      </c>
+      <c r="C400" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D400" s="2">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="E400" s="2">
+        <v>97</v>
+      </c>
+      <c r="F400" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G400" s="2">
+        <v>229.4</v>
+      </c>
+      <c r="H400" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="I400" s="2">
+        <v>44</v>
+      </c>
+      <c r="J400" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K400" s="4">
+        <v>1.2590277777777776</v>
+      </c>
+      <c r="L400" s="2">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="401" spans="1:12">
+      <c r="A401">
+        <v>2009</v>
+      </c>
+      <c r="B401" s="2">
+        <v>16</v>
+      </c>
+      <c r="C401" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D401" s="2">
+        <v>327</v>
+      </c>
+      <c r="E401" s="2">
+        <v>117.8</v>
+      </c>
+      <c r="F401" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G401" s="2">
+        <v>209.2</v>
+      </c>
+      <c r="H401" s="2">
+        <v>84.2</v>
+      </c>
+      <c r="I401" s="2">
+        <v>35</v>
+      </c>
+      <c r="J401" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="K401" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L401" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="402" spans="1:12">
+      <c r="A402">
+        <v>2009</v>
+      </c>
+      <c r="B402" s="2">
+        <v>17</v>
+      </c>
+      <c r="C402" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D402" s="2">
+        <v>338.5</v>
+      </c>
+      <c r="E402" s="2">
+        <v>126.4</v>
+      </c>
+      <c r="F402" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G402" s="2">
+        <v>212.1</v>
+      </c>
+      <c r="H402" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="I402" s="2">
+        <v>35</v>
+      </c>
+      <c r="J402" s="2">
+        <v>41.2</v>
+      </c>
+      <c r="K402" s="4">
+        <v>1.3222222222222222</v>
+      </c>
+      <c r="L402" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="403" spans="1:12">
+      <c r="A403">
+        <v>2009</v>
+      </c>
+      <c r="B403" s="2">
+        <v>18</v>
+      </c>
+      <c r="C403" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D403" s="2">
+        <v>339.2</v>
+      </c>
+      <c r="E403" s="2">
+        <v>126.5</v>
+      </c>
+      <c r="F403" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G403" s="2">
+        <v>212.7</v>
+      </c>
+      <c r="H403" s="2">
+        <v>80.599999999999994</v>
+      </c>
+      <c r="I403" s="2">
+        <v>34</v>
+      </c>
+      <c r="J403" s="2">
+        <v>45</v>
+      </c>
+      <c r="K403" s="4">
+        <v>1.346527777777778</v>
+      </c>
+      <c r="L403" s="2">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="404" spans="1:12">
+      <c r="A404">
+        <v>2009</v>
+      </c>
+      <c r="B404" s="2">
+        <v>19</v>
+      </c>
+      <c r="C404" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D404" s="2">
+        <v>340.6</v>
+      </c>
+      <c r="E404" s="2">
+        <v>156.30000000000001</v>
+      </c>
+      <c r="F404" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G404" s="2">
+        <v>184.2</v>
+      </c>
+      <c r="H404" s="2">
+        <v>61.1</v>
+      </c>
+      <c r="I404" s="2">
+        <v>32</v>
+      </c>
+      <c r="J404" s="2">
+        <v>40.4</v>
+      </c>
+      <c r="K404" s="4">
+        <v>1.3569444444444445</v>
+      </c>
+      <c r="L404" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="405" spans="1:12">
+      <c r="A405">
+        <v>2009</v>
+      </c>
+      <c r="B405" s="2">
+        <v>20</v>
+      </c>
+      <c r="C405" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D405" s="2">
+        <v>346.4</v>
+      </c>
+      <c r="E405" s="2">
+        <v>112.8</v>
+      </c>
+      <c r="F405" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G405" s="2">
+        <v>233.7</v>
+      </c>
+      <c r="H405" s="2">
+        <v>76.400000000000006</v>
+      </c>
+      <c r="I405" s="2">
+        <v>43</v>
+      </c>
+      <c r="J405" s="2">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="K405" s="4">
+        <v>1.2548611111111112</v>
+      </c>
+      <c r="L405" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="406" spans="1:12">
+      <c r="A406">
+        <v>2009</v>
+      </c>
+      <c r="B406" s="2">
+        <v>21</v>
+      </c>
+      <c r="C406" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D406" s="2">
+        <v>348.9</v>
+      </c>
+      <c r="E406" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="F406" s="2">
+        <v>4</v>
+      </c>
+      <c r="G406" s="2">
+        <v>241.9</v>
+      </c>
+      <c r="H406" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="I406" s="2">
+        <v>28</v>
+      </c>
+      <c r="J406" s="2">
+        <v>45.3</v>
+      </c>
+      <c r="K406" s="4">
+        <v>1.2638888888888888</v>
+      </c>
+      <c r="L406" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="407" spans="1:12">
+      <c r="A407">
+        <v>2009</v>
+      </c>
+      <c r="B407" s="2">
+        <v>22</v>
+      </c>
+      <c r="C407" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D407" s="2">
+        <v>349.3</v>
+      </c>
+      <c r="E407" s="2">
+        <v>114.7</v>
+      </c>
+      <c r="F407" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G407" s="2">
+        <v>234.6</v>
+      </c>
+      <c r="H407" s="2">
+        <v>86.9</v>
+      </c>
+      <c r="I407" s="2">
+        <v>44</v>
+      </c>
+      <c r="J407" s="2">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="K407" s="4">
+        <v>1.175</v>
+      </c>
+      <c r="L407" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="408" spans="1:12">
+      <c r="A408">
+        <v>2009</v>
+      </c>
+      <c r="B408" s="2">
+        <v>23</v>
+      </c>
+      <c r="C408" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D408" s="2">
+        <v>352.3</v>
+      </c>
+      <c r="E408" s="2">
+        <v>116.4</v>
+      </c>
+      <c r="F408" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G408" s="2">
+        <v>235.9</v>
+      </c>
+      <c r="H408" s="2">
+        <v>96</v>
+      </c>
+      <c r="I408" s="2">
+        <v>14</v>
+      </c>
+      <c r="J408" s="2">
+        <v>45</v>
+      </c>
+      <c r="K408" s="4">
+        <v>1.2534722222222221</v>
+      </c>
+      <c r="L408" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="409" spans="1:12">
+      <c r="A409">
+        <v>2009</v>
+      </c>
+      <c r="B409" s="2">
+        <v>24</v>
+      </c>
+      <c r="C409" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D409" s="2">
+        <v>356.4</v>
+      </c>
+      <c r="E409" s="2">
+        <v>111</v>
+      </c>
+      <c r="F409" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G409" s="2">
+        <v>245.4</v>
+      </c>
+      <c r="H409" s="2">
+        <v>93.4</v>
+      </c>
+      <c r="I409" s="2">
+        <v>28</v>
+      </c>
+      <c r="J409" s="2">
+        <v>39</v>
+      </c>
+      <c r="K409" s="4">
+        <v>1.3534722222222222</v>
+      </c>
+      <c r="L409" s="2">
+        <v>24.4</v>
+      </c>
+    </row>
+    <row r="410" spans="1:12">
+      <c r="A410">
+        <v>2009</v>
+      </c>
+      <c r="B410" s="2">
+        <v>25</v>
+      </c>
+      <c r="C410" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D410" s="2">
+        <v>357.8</v>
+      </c>
+      <c r="E410" s="2">
+        <v>122.2</v>
+      </c>
+      <c r="F410" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G410" s="2">
+        <v>235.6</v>
+      </c>
+      <c r="H410" s="2">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="I410" s="2">
+        <v>35</v>
+      </c>
+      <c r="J410" s="2">
+        <v>38</v>
+      </c>
+      <c r="K410" s="4">
+        <v>1.2180555555555557</v>
+      </c>
+      <c r="L410" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="411" spans="1:12">
+      <c r="A411">
+        <v>2009</v>
+      </c>
+      <c r="B411" s="2">
+        <v>26</v>
+      </c>
+      <c r="C411" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D411" s="2">
+        <v>361.9</v>
+      </c>
+      <c r="E411" s="2">
+        <v>155.5</v>
+      </c>
+      <c r="F411" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G411" s="2">
+        <v>206.4</v>
+      </c>
+      <c r="H411" s="2">
+        <v>89.5</v>
+      </c>
+      <c r="I411" s="2">
+        <v>37</v>
+      </c>
+      <c r="J411" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K411" s="4">
+        <v>1.3208333333333333</v>
+      </c>
+      <c r="L411" s="2">
+        <v>23.7</v>
+      </c>
+    </row>
+    <row r="412" spans="1:12">
+      <c r="A412">
+        <v>2009</v>
+      </c>
+      <c r="B412" s="2">
+        <v>27</v>
+      </c>
+      <c r="C412" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D412" s="2">
+        <v>365.6</v>
+      </c>
+      <c r="E412" s="2">
+        <v>158.19999999999999</v>
+      </c>
+      <c r="F412" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G412" s="2">
+        <v>207.4</v>
+      </c>
+      <c r="H412" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="I412" s="2">
+        <v>28</v>
+      </c>
+      <c r="J412" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K412" s="4">
+        <v>1.3208333333333333</v>
+      </c>
+      <c r="L412" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="413" spans="1:12">
+      <c r="A413">
+        <v>2009</v>
+      </c>
+      <c r="B413" s="2">
+        <v>28</v>
+      </c>
+      <c r="C413" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D413" s="2">
+        <v>365.6</v>
+      </c>
+      <c r="E413" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="F413" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G413" s="2">
+        <v>258.7</v>
+      </c>
+      <c r="H413" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="I413" s="2">
+        <v>32</v>
+      </c>
+      <c r="J413" s="2">
+        <v>40.799999999999997</v>
+      </c>
+      <c r="K413" s="4">
+        <v>1.3256944444444445</v>
+      </c>
+      <c r="L413" s="2">
+        <v>25.1</v>
+      </c>
+    </row>
+    <row r="414" spans="1:12">
+      <c r="A414">
+        <v>2009</v>
+      </c>
+      <c r="B414" s="2">
+        <v>29</v>
+      </c>
+      <c r="C414" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D414" s="2">
+        <v>372.8</v>
+      </c>
+      <c r="E414" s="2">
+        <v>137.6</v>
+      </c>
+      <c r="F414" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G414" s="2">
+        <v>235.2</v>
+      </c>
+      <c r="H414" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="I414" s="2">
+        <v>25</v>
+      </c>
+      <c r="J414" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="K414" s="4">
+        <v>1.3020833333333333</v>
+      </c>
+      <c r="L414" s="2">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="415" spans="1:12">
+      <c r="A415">
+        <v>2009</v>
+      </c>
+      <c r="B415" s="2">
+        <v>30</v>
+      </c>
+      <c r="C415" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D415" s="2">
+        <v>388.2</v>
+      </c>
+      <c r="E415" s="2">
+        <v>156.5</v>
+      </c>
+      <c r="F415" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G415" s="2">
+        <v>231.7</v>
+      </c>
+      <c r="H415" s="2">
+        <v>87.1</v>
+      </c>
+      <c r="I415" s="2">
+        <v>22</v>
+      </c>
+      <c r="J415" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="K415" s="4">
+        <v>1.3881944444444445</v>
+      </c>
+      <c r="L415" s="2">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="416" spans="1:12">
+      <c r="A416">
+        <v>2009</v>
+      </c>
+      <c r="B416" s="2">
+        <v>31</v>
+      </c>
+      <c r="C416" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D416" s="2">
+        <v>389.3</v>
+      </c>
+      <c r="E416" s="2">
+        <v>144.6</v>
+      </c>
+      <c r="F416" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G416" s="2">
+        <v>244.7</v>
+      </c>
+      <c r="H416" s="2">
+        <v>90.6</v>
+      </c>
+      <c r="I416" s="2">
+        <v>40</v>
+      </c>
+      <c r="J416" s="2">
+        <v>38.9</v>
+      </c>
+      <c r="K416" s="4">
+        <v>1.3340277777777778</v>
+      </c>
+      <c r="L416" s="2">
+        <v>23.4</v>
+      </c>
+    </row>
+    <row r="417" spans="1:12">
+      <c r="A417">
+        <v>2009</v>
+      </c>
+      <c r="B417" s="2">
+        <v>32</v>
+      </c>
+      <c r="C417" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D417" s="2">
+        <v>392.1</v>
+      </c>
+      <c r="E417" s="2">
+        <v>126.6</v>
+      </c>
+      <c r="F417" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G417" s="2">
+        <v>265.60000000000002</v>
+      </c>
+      <c r="H417" s="2">
+        <v>107</v>
+      </c>
+      <c r="I417" s="2">
+        <v>26</v>
+      </c>
+      <c r="J417" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="K417" s="4">
+        <v>1.29375</v>
+      </c>
+      <c r="L417" s="2">
+        <v>30.9</v>
+      </c>
+    </row>
+    <row r="418" spans="1:12">
+      <c r="A418">
+        <v>2008</v>
+      </c>
+      <c r="B418" s="2">
+        <v>1</v>
+      </c>
+      <c r="C418" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D418" s="2">
+        <v>237.2</v>
+      </c>
+      <c r="E418" s="2">
+        <v>80.2</v>
+      </c>
+      <c r="F418" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G418" s="2">
+        <v>156.9</v>
+      </c>
+      <c r="H418" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="I418" s="2">
+        <v>51</v>
+      </c>
+      <c r="J418" s="2">
+        <v>31.4</v>
+      </c>
+      <c r="K418" s="4">
+        <v>1.195138888888889</v>
+      </c>
+      <c r="L418" s="2">
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="419" spans="1:12">
+      <c r="A419">
+        <v>2008</v>
+      </c>
+      <c r="B419" s="2">
+        <v>2</v>
+      </c>
+      <c r="C419" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D419" s="2">
+        <v>261.2</v>
+      </c>
+      <c r="E419" s="2">
+        <v>81.599999999999994</v>
+      </c>
+      <c r="F419" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="G419" s="2">
+        <v>179.7</v>
+      </c>
+      <c r="H419" s="2">
+        <v>60.6</v>
+      </c>
+      <c r="I419" s="2">
+        <v>34</v>
+      </c>
+      <c r="J419" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K419" s="4">
+        <v>1.125</v>
+      </c>
+      <c r="L419" s="2">
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="420" spans="1:12">
+      <c r="A420">
+        <v>2008</v>
+      </c>
+      <c r="B420" s="2">
+        <v>3</v>
+      </c>
+      <c r="C420" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D420" s="2">
+        <v>274.3</v>
+      </c>
+      <c r="E420" s="2">
+        <v>92.2</v>
+      </c>
+      <c r="F420" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G420" s="2">
+        <v>182.1</v>
+      </c>
+      <c r="H420" s="2">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="I420" s="2">
+        <v>48</v>
+      </c>
+      <c r="J420" s="2">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="K420" s="4">
+        <v>1.2298611111111111</v>
+      </c>
+      <c r="L420" s="2">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="421" spans="1:12">
+      <c r="A421">
+        <v>2008</v>
+      </c>
+      <c r="B421" s="2">
+        <v>4</v>
+      </c>
+      <c r="C421" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D421" s="2">
+        <v>288.8</v>
+      </c>
+      <c r="E421" s="2">
+        <v>95.4</v>
+      </c>
+      <c r="F421" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G421" s="2">
+        <v>193.4</v>
+      </c>
+      <c r="H421" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I421" s="2">
+        <v>24</v>
+      </c>
+      <c r="J421" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K421" s="4">
+        <v>1.1868055555555557</v>
+      </c>
+      <c r="L421" s="2">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="422" spans="1:12">
+      <c r="A422">
+        <v>2008</v>
+      </c>
+      <c r="B422" s="2">
+        <v>5</v>
+      </c>
+      <c r="C422" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D422" s="2">
+        <v>292</v>
+      </c>
+      <c r="E422" s="2">
+        <v>95.8</v>
+      </c>
+      <c r="F422" s="2">
+        <v>4</v>
+      </c>
+      <c r="G422" s="2">
+        <v>196.2</v>
+      </c>
+      <c r="H422" s="2">
+        <v>76.7</v>
+      </c>
+      <c r="I422" s="2">
+        <v>42</v>
+      </c>
+      <c r="J422" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K422" s="4">
+        <v>1.1409722222222223</v>
+      </c>
+      <c r="L422" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="423" spans="1:12">
+      <c r="A423">
+        <v>2008</v>
+      </c>
+      <c r="B423" s="2">
+        <v>6</v>
+      </c>
+      <c r="C423" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D423" s="2">
+        <v>292.39999999999998</v>
+      </c>
+      <c r="E423" s="2">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="F423" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G423" s="2">
+        <v>215.6</v>
+      </c>
+      <c r="H423" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="I423" s="2">
+        <v>45</v>
+      </c>
+      <c r="J423" s="2">
+        <v>33.5</v>
+      </c>
+      <c r="K423" s="4">
+        <v>1.195138888888889</v>
+      </c>
+      <c r="L423" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:12">
+      <c r="A424">
+        <v>2008</v>
+      </c>
+      <c r="B424" s="2">
+        <v>7</v>
+      </c>
+      <c r="C424" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D424" s="2">
+        <v>293.60000000000002</v>
+      </c>
+      <c r="E424" s="2">
+        <v>93.9</v>
+      </c>
+      <c r="F424" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G424" s="2">
+        <v>199.8</v>
+      </c>
+      <c r="H424" s="2">
+        <v>69.2</v>
+      </c>
+      <c r="I424" s="2">
+        <v>44</v>
+      </c>
+      <c r="J424" s="2">
+        <v>35</v>
+      </c>
+      <c r="K424" s="4">
+        <v>1.2923611111111111</v>
+      </c>
+      <c r="L424" s="2">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="425" spans="1:12">
+      <c r="A425">
+        <v>2008</v>
+      </c>
+      <c r="B425" s="2">
+        <v>8</v>
+      </c>
+      <c r="C425" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D425" s="2">
+        <v>294.3</v>
+      </c>
+      <c r="E425" s="2">
+        <v>106.6</v>
+      </c>
+      <c r="F425" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G425" s="2">
+        <v>187.7</v>
+      </c>
+      <c r="H425" s="2">
+        <v>86.2</v>
+      </c>
+      <c r="I425" s="2">
+        <v>59</v>
+      </c>
+      <c r="J425" s="2">
+        <v>35.6</v>
+      </c>
+      <c r="K425" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L425" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="426" spans="1:12">
+      <c r="A426">
+        <v>2008</v>
+      </c>
+      <c r="B426" s="2">
+        <v>9</v>
+      </c>
+      <c r="C426" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D426" s="2">
+        <v>306.10000000000002</v>
+      </c>
+      <c r="E426" s="2">
+        <v>118.8</v>
+      </c>
+      <c r="F426" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G426" s="2">
+        <v>187.3</v>
+      </c>
+      <c r="H426" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="I426" s="2">
+        <v>29</v>
+      </c>
+      <c r="J426" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K426" s="4">
+        <v>1.2249999999999999</v>
+      </c>
+      <c r="L426" s="2">
+        <v>20.2</v>
+      </c>
+    </row>
+    <row r="427" spans="1:12">
+      <c r="A427">
+        <v>2008</v>
+      </c>
+      <c r="B427" s="2">
+        <v>10</v>
+      </c>
+      <c r="C427" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D427" s="2">
+        <v>309</v>
+      </c>
+      <c r="E427" s="2">
+        <v>107.6</v>
+      </c>
+      <c r="F427" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G427" s="2">
+        <v>201.4</v>
+      </c>
+      <c r="H427" s="2">
+        <v>89.8</v>
+      </c>
+      <c r="I427" s="2">
+        <v>31</v>
+      </c>
+      <c r="J427" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K427" s="4">
+        <v>1.1694444444444445</v>
+      </c>
+      <c r="L427" s="2">
+        <v>19.3</v>
+      </c>
+    </row>
+    <row r="428" spans="1:12">
+      <c r="A428">
+        <v>2008</v>
+      </c>
+      <c r="B428" s="2">
+        <v>11</v>
+      </c>
+      <c r="C428" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D428" s="2">
+        <v>310.89999999999998</v>
+      </c>
+      <c r="E428" s="2">
+        <v>122.9</v>
+      </c>
+      <c r="F428" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G428" s="2">
+        <v>188.1</v>
+      </c>
+      <c r="H428" s="2">
+        <v>78</v>
+      </c>
+      <c r="I428" s="2">
+        <v>30</v>
+      </c>
+      <c r="J428" s="2">
+        <v>47.4</v>
+      </c>
+      <c r="K428" s="4">
+        <v>1.3062500000000001</v>
+      </c>
+      <c r="L428" s="2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="429" spans="1:12">
+      <c r="A429">
+        <v>2008</v>
+      </c>
+      <c r="B429" s="2">
+        <v>12</v>
+      </c>
+      <c r="C429" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D429" s="2">
+        <v>325.5</v>
+      </c>
+      <c r="E429" s="2">
+        <v>120.1</v>
+      </c>
+      <c r="F429" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G429" s="2">
+        <v>205.4</v>
+      </c>
+      <c r="H429" s="2">
+        <v>87.3</v>
+      </c>
+      <c r="I429" s="2">
+        <v>17</v>
+      </c>
+      <c r="J429" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="K429" s="4">
+        <v>1.3347222222222221</v>
+      </c>
+      <c r="L429" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="430" spans="1:12">
+      <c r="A430">
+        <v>2008</v>
+      </c>
+      <c r="B430" s="2">
+        <v>13</v>
+      </c>
+      <c r="C430" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D430" s="2">
+        <v>326</v>
+      </c>
+      <c r="E430" s="2">
+        <v>106.8</v>
+      </c>
+      <c r="F430" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G430" s="2">
+        <v>219.2</v>
+      </c>
+      <c r="H430" s="2">
+        <v>85</v>
+      </c>
+      <c r="I430" s="2">
+        <v>30</v>
+      </c>
+      <c r="J430" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K430" s="4">
+        <v>1.2819444444444443</v>
+      </c>
+      <c r="L430" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:12">
+      <c r="A431">
+        <v>2008</v>
+      </c>
+      <c r="B431" s="2">
+        <v>14</v>
+      </c>
+      <c r="C431" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D431" s="2">
+        <v>326.10000000000002</v>
+      </c>
+      <c r="E431" s="2">
+        <v>121.6</v>
+      </c>
+      <c r="F431" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G431" s="2">
+        <v>204.4</v>
+      </c>
+      <c r="H431" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="I431" s="2">
+        <v>24</v>
+      </c>
+      <c r="J431" s="2">
+        <v>36.1</v>
+      </c>
+      <c r="K431" s="4">
+        <v>1.2472222222222222</v>
+      </c>
+      <c r="L431" s="2">
+        <v>21.4</v>
+      </c>
+    </row>
+    <row r="432" spans="1:12">
+      <c r="A432">
+        <v>2008</v>
+      </c>
+      <c r="B432" s="2">
+        <v>15</v>
+      </c>
+      <c r="C432" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D432" s="2">
+        <v>329</v>
+      </c>
+      <c r="E432" s="2">
+        <v>101.2</v>
+      </c>
+      <c r="F432" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G432" s="2">
+        <v>227.8</v>
+      </c>
+      <c r="H432" s="2">
+        <v>77</v>
+      </c>
+      <c r="I432" s="2">
+        <v>40</v>
+      </c>
+      <c r="J432" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K432" s="4">
+        <v>1.2055555555555555</v>
+      </c>
+      <c r="L432" s="2">
+        <v>19.8</v>
+      </c>
+    </row>
+    <row r="433" spans="1:12">
+      <c r="A433">
+        <v>2008</v>
+      </c>
+      <c r="B433" s="2">
+        <v>16</v>
+      </c>
+      <c r="C433" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D433" s="2">
+        <v>329.4</v>
+      </c>
+      <c r="E433" s="2">
+        <v>94.9</v>
+      </c>
+      <c r="F433" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G433" s="2">
+        <v>234.5</v>
+      </c>
+      <c r="H433" s="2">
+        <v>88.1</v>
+      </c>
+      <c r="I433" s="2">
+        <v>41</v>
+      </c>
+      <c r="J433" s="2">
+        <v>38.6</v>
+      </c>
+      <c r="K433" s="4">
+        <v>1.2562499999999999</v>
+      </c>
+      <c r="L433" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:12">
+      <c r="A434">
+        <v>2008</v>
+      </c>
+      <c r="B434" s="2">
+        <v>17</v>
+      </c>
+      <c r="C434" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D434" s="2">
+        <v>330.9</v>
+      </c>
+      <c r="E434" s="2">
+        <v>106.8</v>
+      </c>
+      <c r="F434" s="2">
+        <v>4</v>
+      </c>
+      <c r="G434" s="2">
+        <v>224.1</v>
+      </c>
+      <c r="H434" s="2">
+        <v>95.4</v>
+      </c>
+      <c r="I434" s="2">
+        <v>29</v>
+      </c>
+      <c r="J434" s="2">
+        <v>41</v>
+      </c>
+      <c r="K434" s="4">
+        <v>1.1972222222222222</v>
+      </c>
+      <c r="L434" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="435" spans="1:12">
+      <c r="A435">
+        <v>2008</v>
+      </c>
+      <c r="B435" s="2">
+        <v>18</v>
+      </c>
+      <c r="C435" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D435" s="2">
+        <v>331.2</v>
+      </c>
+      <c r="E435" s="2">
+        <v>119.5</v>
+      </c>
+      <c r="F435" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G435" s="2">
+        <v>211.7</v>
+      </c>
+      <c r="H435" s="2">
+        <v>81.400000000000006</v>
+      </c>
+      <c r="I435" s="2">
+        <v>37</v>
+      </c>
+      <c r="J435" s="2">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="K435" s="4">
+        <v>1.2847222222222221</v>
+      </c>
+      <c r="L435" s="2">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="436" spans="1:12">
+      <c r="A436">
+        <v>2008</v>
+      </c>
+      <c r="B436" s="2">
+        <v>19</v>
+      </c>
+      <c r="C436" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D436" s="2">
+        <v>331.5</v>
+      </c>
+      <c r="E436" s="2">
+        <v>110.2</v>
+      </c>
+      <c r="F436" s="2">
+        <v>4</v>
+      </c>
+      <c r="G436" s="2">
+        <v>221.2</v>
+      </c>
+      <c r="H436" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="I436" s="2">
+        <v>31</v>
+      </c>
+      <c r="J436" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K436" s="4">
+        <v>1.2451388888888888</v>
+      </c>
+      <c r="L436" s="2">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="437" spans="1:12">
+      <c r="A437">
+        <v>2008</v>
+      </c>
+      <c r="B437" s="2">
+        <v>20</v>
+      </c>
+      <c r="C437" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D437" s="2">
+        <v>334.7</v>
+      </c>
+      <c r="E437" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="F437" s="2">
+        <v>3.4</v>
+      </c>
+      <c r="G437" s="2">
+        <v>241.2</v>
+      </c>
+      <c r="H437" s="2">
+        <v>77.2</v>
+      </c>
+      <c r="I437" s="2">
+        <v>28</v>
+      </c>
+      <c r="J437" s="2">
+        <v>34.9</v>
+      </c>
+      <c r="K437" s="4">
+        <v>1.3520833333333335</v>
+      </c>
+      <c r="L437" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="438" spans="1:12">
+      <c r="A438">
+        <v>2008</v>
+      </c>
+      <c r="B438" s="2">
+        <v>21</v>
+      </c>
+      <c r="C438" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D438" s="2">
+        <v>334.7</v>
+      </c>
+      <c r="E438" s="2">
+        <v>131.6</v>
+      </c>
+      <c r="F438" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G438" s="2">
+        <v>203.1</v>
+      </c>
+      <c r="H438" s="2">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="I438" s="2">
+        <v>24</v>
+      </c>
+      <c r="J438" s="2">
+        <v>38.1</v>
+      </c>
+      <c r="K438" s="4">
+        <v>1.2055555555555555</v>
+      </c>
+      <c r="L438" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="439" spans="1:12">
+      <c r="A439">
+        <v>2008</v>
+      </c>
+      <c r="B439" s="2">
+        <v>22</v>
+      </c>
+      <c r="C439" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D439" s="2">
+        <v>336.6</v>
+      </c>
+      <c r="E439" s="2">
+        <v>122.6</v>
+      </c>
+      <c r="F439" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G439" s="2">
+        <v>213.9</v>
+      </c>
+      <c r="H439" s="2">
+        <v>92.3</v>
+      </c>
+      <c r="I439" s="2">
+        <v>25</v>
+      </c>
+      <c r="J439" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="K439" s="4">
+        <v>1.1722222222222223</v>
+      </c>
+      <c r="L439" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="440" spans="1:12">
+      <c r="A440">
+        <v>2008</v>
+      </c>
+      <c r="B440" s="2">
+        <v>23</v>
+      </c>
+      <c r="C440" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D440" s="2">
+        <v>339.5</v>
+      </c>
+      <c r="E440" s="2">
+        <v>117.8</v>
+      </c>
+      <c r="F440" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G440" s="2">
+        <v>221.7</v>
+      </c>
+      <c r="H440" s="2">
+        <v>80</v>
+      </c>
+      <c r="I440" s="2">
+        <v>24</v>
+      </c>
+      <c r="J440" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K440" s="4">
+        <v>1.2375</v>
+      </c>
+      <c r="L440" s="2">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12">
+      <c r="A441">
+        <v>2008</v>
+      </c>
+      <c r="B441" s="2">
+        <v>24</v>
+      </c>
+      <c r="C441" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D441" s="2">
+        <v>348.1</v>
+      </c>
+      <c r="E441" s="2">
+        <v>127.7</v>
+      </c>
+      <c r="F441" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G441" s="2">
+        <v>220.4</v>
+      </c>
+      <c r="H441" s="2">
+        <v>84.6</v>
+      </c>
+      <c r="I441" s="2">
+        <v>34</v>
+      </c>
+      <c r="J441" s="2">
+        <v>38</v>
+      </c>
+      <c r="K441" s="4">
+        <v>1.2291666666666667</v>
+      </c>
+      <c r="L441" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12">
+      <c r="A442">
+        <v>2008</v>
+      </c>
+      <c r="B442" s="2">
+        <v>25</v>
+      </c>
+      <c r="C442" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D442" s="2">
+        <v>349.9</v>
+      </c>
+      <c r="E442" s="2">
+        <v>102.6</v>
+      </c>
+      <c r="F442" s="2">
+        <v>4</v>
+      </c>
+      <c r="G442" s="2">
+        <v>247.4</v>
+      </c>
+      <c r="H442" s="2">
+        <v>90.3</v>
+      </c>
+      <c r="I442" s="2">
+        <v>28</v>
+      </c>
+      <c r="J442" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="K442" s="4">
+        <v>1.2965277777777777</v>
+      </c>
+      <c r="L442" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:12">
+      <c r="A443">
+        <v>2008</v>
+      </c>
+      <c r="B443" s="2">
+        <v>26</v>
+      </c>
+      <c r="C443" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D443" s="2">
+        <v>356.5</v>
+      </c>
+      <c r="E443" s="2">
+        <v>151.9</v>
+      </c>
+      <c r="F443" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G443" s="2">
+        <v>204.6</v>
+      </c>
+      <c r="H443" s="2">
+        <v>79.7</v>
+      </c>
+      <c r="I443" s="2">
+        <v>17</v>
+      </c>
+      <c r="J443" s="2">
+        <v>45.9</v>
+      </c>
+      <c r="K443" s="4">
+        <v>1.3520833333333335</v>
+      </c>
+      <c r="L443" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="444" spans="1:12">
+      <c r="A444">
+        <v>2008</v>
+      </c>
+      <c r="B444" s="2">
+        <v>27</v>
+      </c>
+      <c r="C444" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D444" s="2">
+        <v>360.9</v>
+      </c>
+      <c r="E444" s="2">
+        <v>159.69999999999999</v>
+      </c>
+      <c r="F444" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G444" s="2">
+        <v>201.2</v>
+      </c>
+      <c r="H444" s="2">
+        <v>79.3</v>
+      </c>
+      <c r="I444" s="2">
+        <v>32</v>
+      </c>
+      <c r="J444" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K444" s="4">
+        <v>1.34375</v>
+      </c>
+      <c r="L444" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="445" spans="1:12">
+      <c r="A445">
+        <v>2008</v>
+      </c>
+      <c r="B445" s="2">
+        <v>28</v>
+      </c>
+      <c r="C445" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D445" s="2">
+        <v>371.9</v>
+      </c>
+      <c r="E445" s="2">
+        <v>154.69999999999999</v>
+      </c>
+      <c r="F445" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G445" s="2">
+        <v>217.2</v>
+      </c>
+      <c r="H445" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="I445" s="2">
+        <v>30</v>
+      </c>
+      <c r="J445" s="2">
+        <v>39.6</v>
+      </c>
+      <c r="K445" s="4">
+        <v>1.26875</v>
+      </c>
+      <c r="L445" s="2">
+        <v>29.1</v>
+      </c>
+    </row>
+    <row r="446" spans="1:12">
+      <c r="A446">
+        <v>2008</v>
+      </c>
+      <c r="B446" s="2">
+        <v>29</v>
+      </c>
+      <c r="C446" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D446" s="2">
+        <v>374.6</v>
+      </c>
+      <c r="E446" s="2">
+        <v>146.1</v>
+      </c>
+      <c r="F446" s="2">
+        <v>5</v>
+      </c>
+      <c r="G446" s="2">
+        <v>228.5</v>
+      </c>
+      <c r="H446" s="2">
+        <v>98.5</v>
+      </c>
+      <c r="I446" s="2">
+        <v>26</v>
+      </c>
+      <c r="J446" s="2">
+        <v>44.1</v>
+      </c>
+      <c r="K446" s="4">
+        <v>1.3027777777777778</v>
+      </c>
+      <c r="L446" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="447" spans="1:12">
+      <c r="A447">
+        <v>2008</v>
+      </c>
+      <c r="B447" s="2">
+        <v>30</v>
+      </c>
+      <c r="C447" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D447" s="2">
+        <v>378</v>
+      </c>
+      <c r="E447" s="2">
+        <v>118.7</v>
+      </c>
+      <c r="F447" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G447" s="2">
+        <v>259.3</v>
+      </c>
+      <c r="H447" s="2">
+        <v>96</v>
+      </c>
+      <c r="I447" s="2">
+        <v>35</v>
+      </c>
+      <c r="J447" s="2">
+        <v>42.3</v>
+      </c>
+      <c r="K447" s="4">
+        <v>1.4020833333333333</v>
+      </c>
+      <c r="L447" s="2">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:12">
+      <c r="A448">
+        <v>2008</v>
+      </c>
+      <c r="B448" s="2">
+        <v>31</v>
+      </c>
+      <c r="C448" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D448" s="2">
+        <v>393.2</v>
+      </c>
+      <c r="E448" s="2">
+        <v>158.9</v>
+      </c>
+      <c r="F448" s="2">
+        <v>5</v>
+      </c>
+      <c r="G448" s="2">
+        <v>234.2</v>
+      </c>
+      <c r="H448" s="2">
+        <v>91.1</v>
+      </c>
+      <c r="I448" s="2">
+        <v>10</v>
+      </c>
+      <c r="J448" s="2">
+        <v>47.4</v>
+      </c>
+      <c r="K448" s="4">
+        <v>1.3423611111111111</v>
+      </c>
+      <c r="L448" s="2">
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:12">
+      <c r="A449">
+        <v>2008</v>
+      </c>
+      <c r="B449" s="2">
+        <v>32</v>
+      </c>
+      <c r="C449" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D449" s="2">
+        <v>404.4</v>
+      </c>
+      <c r="E449" s="2">
+        <v>172.1</v>
+      </c>
+      <c r="F449" s="2">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="G449" s="2">
+        <v>232.2</v>
+      </c>
+      <c r="H449" s="2">
+        <v>110.8</v>
+      </c>
+      <c r="I449" s="2">
+        <v>30</v>
+      </c>
+      <c r="J449" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="K449" s="4">
+        <v>1.375</v>
+      </c>
+      <c r="L449" s="2">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="450" spans="1:12">
+      <c r="A450">
+        <v>2007</v>
+      </c>
+      <c r="B450" s="2">
+        <v>1</v>
+      </c>
+      <c r="C450" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D450" s="2">
+        <v>266.39999999999998</v>
+      </c>
+      <c r="E450" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="F450" s="2">
+        <v>4</v>
+      </c>
+      <c r="G450" s="2">
+        <v>176.5</v>
+      </c>
+      <c r="H450" s="2">
+        <v>76.5</v>
+      </c>
+      <c r="I450" s="2">
+        <v>36</v>
+      </c>
+      <c r="J450" s="2">
+        <v>40.5</v>
+      </c>
+      <c r="K450" s="4">
+        <v>1.1180555555555556</v>
+      </c>
+      <c r="L450" s="2">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="451" spans="1:12">
+      <c r="A451">
+        <v>2007</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2</v>
+      </c>
+      <c r="C451" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D451" s="2">
+        <v>278.2</v>
+      </c>
+      <c r="E451" s="2">
+        <v>107.9</v>
+      </c>
+      <c r="F451" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G451" s="2">
+        <v>170.3</v>
+      </c>
+      <c r="H451" s="2">
+        <v>75.3</v>
+      </c>
+      <c r="I451" s="2">
+        <v>33</v>
+      </c>
+      <c r="J451" s="2">
+        <v>40.6</v>
+      </c>
+      <c r="K451" s="4">
+        <v>1.23125</v>
+      </c>
+      <c r="L451" s="2">
+        <v>16.899999999999999</v>
+      </c>
+    </row>
+    <row r="452" spans="1:12">
+      <c r="A452">
+        <v>2007</v>
+      </c>
+      <c r="B452" s="2">
+        <v>3</v>
+      </c>
+      <c r="C452" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D452" s="2">
+        <v>279.7</v>
+      </c>
+      <c r="E452" s="2">
+        <v>106.9</v>
+      </c>
+      <c r="F452" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G452" s="2">
+        <v>172.8</v>
+      </c>
+      <c r="H452" s="2">
+        <v>73.3</v>
+      </c>
+      <c r="I452" s="2">
+        <v>28</v>
+      </c>
+      <c r="J452" s="2">
+        <v>45.2</v>
+      </c>
+      <c r="K452" s="4">
+        <v>1.257638888888889</v>
+      </c>
+      <c r="L452" s="2">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="453" spans="1:12">
+      <c r="A453">
+        <v>2007</v>
+      </c>
+      <c r="B453" s="2">
+        <v>4</v>
+      </c>
+      <c r="C453" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D453" s="2">
+        <v>288.3</v>
+      </c>
+      <c r="E453" s="2">
+        <v>98.2</v>
+      </c>
+      <c r="F453" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G453" s="2">
+        <v>190.1</v>
+      </c>
+      <c r="H453" s="2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="I453" s="2">
+        <v>47</v>
+      </c>
+      <c r="J453" s="2">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="K453" s="4">
+        <v>1.1416666666666666</v>
+      </c>
+      <c r="L453" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="454" spans="1:12">
+      <c r="A454">
+        <v>2007</v>
+      </c>
+      <c r="B454" s="2">
+        <v>5</v>
+      </c>
+      <c r="C454" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D454" s="2">
+        <v>291.60000000000002</v>
+      </c>
+      <c r="E454" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="F454" s="2">
+        <v>4</v>
+      </c>
+      <c r="G454" s="2">
+        <v>199.2</v>
+      </c>
+      <c r="H454" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="I454" s="2">
+        <v>40</v>
+      </c>
+      <c r="J454" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="K454" s="4">
+        <v>1.1909722222222221</v>
+      </c>
+      <c r="L454" s="2">
+        <v>18.600000000000001</v>
+      </c>
+    </row>
+    <row r="455" spans="1:12">
+      <c r="A455">
+        <v>2007</v>
+      </c>
+      <c r="B455" s="2">
+        <v>6</v>
+      </c>
+      <c r="C455" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D455" s="2">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="E455" s="2">
+        <v>79.2</v>
+      </c>
+      <c r="F455" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G455" s="2">
+        <v>222.3</v>
+      </c>
+      <c r="H455" s="2">
+        <v>87.6</v>
+      </c>
+      <c r="I455" s="2">
+        <v>32</v>
+      </c>
+      <c r="J455" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="K455" s="4">
+        <v>1.2340277777777777</v>
+      </c>
+      <c r="L455" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="456" spans="1:12">
+      <c r="A456">
+        <v>2007</v>
+      </c>
+      <c r="B456" s="2">
+        <v>7</v>
+      </c>
+      <c r="C456" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D456" s="2">
+        <v>305</v>
+      </c>
+      <c r="E456" s="2">
+        <v>97.7</v>
+      </c>
+      <c r="F456" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G456" s="2">
+        <v>207.3</v>
+      </c>
+      <c r="H456" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I456" s="2">
+        <v>53</v>
+      </c>
+      <c r="J456" s="2">
+        <v>34.6</v>
+      </c>
+      <c r="K456" s="4">
+        <v>1.1930555555555555</v>
+      </c>
+      <c r="L456" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="457" spans="1:12">
+      <c r="A457">
+        <v>2007</v>
+      </c>
+      <c r="B457" s="2">
+        <v>8</v>
+      </c>
+      <c r="C457" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D457" s="2">
+        <v>305.2</v>
+      </c>
+      <c r="E457" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="F457" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G457" s="2">
+        <v>214</v>
+      </c>
+      <c r="H457" s="2">
+        <v>77.099999999999994</v>
+      </c>
+      <c r="I457" s="2">
+        <v>33</v>
+      </c>
+      <c r="J457" s="2">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="K457" s="4">
+        <v>1.2340277777777777</v>
+      </c>
+      <c r="L457" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="458" spans="1:12">
+      <c r="A458">
+        <v>2007</v>
+      </c>
+      <c r="B458" s="2">
+        <v>9</v>
+      </c>
+      <c r="C458" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D458" s="2">
+        <v>307.60000000000002</v>
+      </c>
+      <c r="E458" s="2">
+        <v>94.6</v>
+      </c>
+      <c r="F458" s="2">
+        <v>4</v>
+      </c>
+      <c r="G458" s="2">
+        <v>213.1</v>
+      </c>
+      <c r="H458" s="2">
+        <v>75.099999999999994</v>
+      </c>
+      <c r="I458" s="2">
+        <v>46</v>
+      </c>
+      <c r="J458" s="2">
+        <v>39.4</v>
+      </c>
+      <c r="K458" s="4">
+        <v>1.226388888888889</v>
+      </c>
+      <c r="L458" s="2">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="459" spans="1:12">
+      <c r="A459">
+        <v>2007</v>
+      </c>
+      <c r="B459" s="2">
+        <v>10</v>
+      </c>
+      <c r="C459" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D459" s="2">
+        <v>313.3</v>
+      </c>
+      <c r="E459" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="F459" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G459" s="2">
+        <v>210.4</v>
+      </c>
+      <c r="H459" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I459" s="2">
+        <v>35</v>
+      </c>
+      <c r="J459" s="2">
+        <v>33</v>
+      </c>
+      <c r="K459" s="4">
+        <v>1.2368055555555555</v>
+      </c>
+      <c r="L459" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:12">
+      <c r="A460">
+        <v>2007</v>
+      </c>
+      <c r="B460" s="2">
+        <v>11</v>
+      </c>
+      <c r="C460" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D460" s="2">
+        <v>313.8</v>
+      </c>
+      <c r="E460" s="2">
+        <v>100.3</v>
+      </c>
+      <c r="F460" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G460" s="2">
+        <v>213.5</v>
+      </c>
+      <c r="H460" s="2">
+        <v>76.099999999999994</v>
+      </c>
+      <c r="I460" s="2">
+        <v>37</v>
+      </c>
+      <c r="J460" s="2">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="K460" s="4">
+        <v>1.1611111111111112</v>
+      </c>
+      <c r="L460" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="461" spans="1:12">
+      <c r="A461">
+        <v>2007</v>
+      </c>
+      <c r="B461" s="2">
+        <v>12</v>
+      </c>
+      <c r="C461" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D461" s="2">
+        <v>314.7</v>
+      </c>
+      <c r="E461" s="2">
+        <v>95.8</v>
+      </c>
+      <c r="F461" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G461" s="2">
+        <v>218.9</v>
+      </c>
+      <c r="H461" s="2">
+        <v>80.7</v>
+      </c>
+      <c r="I461" s="2">
+        <v>36</v>
+      </c>
+      <c r="J461" s="2">
+        <v>37.200000000000003</v>
+      </c>
+      <c r="K461" s="4">
+        <v>1.2104166666666667</v>
+      </c>
+      <c r="L461" s="2">
+        <v>18.8</v>
+      </c>
+    </row>
+    <row r="462" spans="1:12">
+      <c r="A462">
+        <v>2007</v>
+      </c>
+      <c r="B462" s="2">
+        <v>13</v>
+      </c>
+      <c r="C462" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D462" s="2">
+        <v>319.39999999999998</v>
+      </c>
+      <c r="E462" s="2">
+        <v>130.6</v>
+      </c>
+      <c r="F462" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G462" s="2">
+        <v>188.9</v>
+      </c>
+      <c r="H462" s="2">
+        <v>81</v>
+      </c>
+      <c r="I462" s="2">
+        <v>37</v>
+      </c>
+      <c r="J462" s="2">
+        <v>31.2</v>
+      </c>
+      <c r="K462" s="4">
+        <v>1.2625</v>
+      </c>
+      <c r="L462" s="2">
+        <v>20.9</v>
+      </c>
+    </row>
+    <row r="463" spans="1:12">
+      <c r="A463">
+        <v>2007</v>
+      </c>
+      <c r="B463" s="2">
+        <v>14</v>
+      </c>
+      <c r="C463" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D463" s="2">
+        <v>320.2</v>
+      </c>
+      <c r="E463" s="2">
+        <v>107</v>
+      </c>
+      <c r="F463" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G463" s="2">
+        <v>213.2</v>
+      </c>
+      <c r="H463" s="2">
+        <v>70</v>
+      </c>
+      <c r="I463" s="2">
+        <v>42</v>
+      </c>
+      <c r="J463" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K463" s="4">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="L463" s="2">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="464" spans="1:12">
+      <c r="A464">
+        <v>2007</v>
+      </c>
+      <c r="B464" s="2">
+        <v>15</v>
+      </c>
+      <c r="C464" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D464" s="2">
+        <v>321.8</v>
+      </c>
+      <c r="E464" s="2">
+        <v>102.8</v>
+      </c>
+      <c r="F464" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G464" s="2">
+        <v>219.1</v>
+      </c>
+      <c r="H464" s="2">
+        <v>73</v>
+      </c>
+      <c r="I464" s="2">
+        <v>45</v>
+      </c>
+      <c r="J464" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="K464" s="4">
+        <v>1.2645833333333334</v>
+      </c>
+      <c r="L464" s="2">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="465" spans="1:12">
+      <c r="A465">
+        <v>2007</v>
+      </c>
+      <c r="B465" s="2">
+        <v>16</v>
+      </c>
+      <c r="C465" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D465" s="2">
+        <v>324.8</v>
+      </c>
+      <c r="E465" s="2">
+        <v>110.7</v>
+      </c>
+      <c r="F465" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G465" s="2">
+        <v>214.1</v>
+      </c>
+      <c r="H465" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="I465" s="2">
+        <v>23</v>
+      </c>
+      <c r="J465" s="2">
+        <v>42.5</v>
+      </c>
+      <c r="K465" s="4">
+        <v>1.3020833333333333</v>
+      </c>
+      <c r="L465" s="2">
+        <v>21.7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:12">
+      <c r="A466">
+        <v>2007</v>
+      </c>
+      <c r="B466" s="2">
+        <v>17</v>
+      </c>
+      <c r="C466" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D466" s="2">
+        <v>330.2</v>
+      </c>
+      <c r="E466" s="2">
+        <v>97.9</v>
+      </c>
+      <c r="F466" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G466" s="2">
+        <v>232.2</v>
+      </c>
+      <c r="H466" s="2">
+        <v>85.8</v>
+      </c>
+      <c r="I466" s="2">
+        <v>36</v>
+      </c>
+      <c r="J466" s="2">
+        <v>39.9</v>
+      </c>
+      <c r="K466" s="4">
+        <v>1.2631944444444445</v>
+      </c>
+      <c r="L466" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="467" spans="1:12">
+      <c r="A467">
+        <v>2007</v>
+      </c>
+      <c r="B467" s="2">
+        <v>18</v>
+      </c>
+      <c r="C467" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D467" s="2">
+        <v>331.9</v>
+      </c>
+      <c r="E467" s="2">
+        <v>134.80000000000001</v>
+      </c>
+      <c r="F467" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G467" s="2">
+        <v>197.1</v>
+      </c>
+      <c r="H467" s="2">
+        <v>82.6</v>
+      </c>
+      <c r="I467" s="2">
+        <v>29</v>
+      </c>
+      <c r="J467" s="2">
+        <v>42.2</v>
+      </c>
+      <c r="K467" s="4">
+        <v>1.3326388888888889</v>
+      </c>
+      <c r="L467" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="468" spans="1:12">
+      <c r="A468">
+        <v>2007</v>
+      </c>
+      <c r="B468" s="2">
+        <v>19</v>
+      </c>
+      <c r="C468" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D468" s="2">
+        <v>336</v>
+      </c>
+      <c r="E468" s="2">
+        <v>142.6</v>
+      </c>
+      <c r="F468" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G468" s="2">
+        <v>193.4</v>
+      </c>
+      <c r="H468" s="2">
+        <v>88.3</v>
+      </c>
+      <c r="I468" s="2">
+        <v>33</v>
+      </c>
+      <c r="J468" s="2">
+        <v>42.7</v>
+      </c>
+      <c r="K468" s="4">
+        <v>1.3034722222222224</v>
+      </c>
+      <c r="L468" s="2">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="469" spans="1:12">
+      <c r="A469">
+        <v>2007</v>
+      </c>
+      <c r="B469" s="2">
+        <v>20</v>
+      </c>
+      <c r="C469" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D469" s="2">
+        <v>340.4</v>
+      </c>
+      <c r="E469" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="F469" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="G469" s="2">
+        <v>266.3</v>
+      </c>
+      <c r="H469" s="2">
+        <v>85.8</v>
+      </c>
+      <c r="I469" s="2">
+        <v>37</v>
+      </c>
+      <c r="J469" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K469" s="4">
+        <v>1.2854166666666667</v>
+      </c>
+      <c r="L469" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="470" spans="1:12">
+      <c r="A470">
+        <v>2007</v>
+      </c>
+      <c r="B470" s="2">
+        <v>21</v>
+      </c>
+      <c r="C470" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D470" s="2">
+        <v>341.1</v>
+      </c>
+      <c r="E470" s="2">
+        <v>115.2</v>
+      </c>
+      <c r="F470" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G470" s="2">
+        <v>225.8</v>
+      </c>
+      <c r="H470" s="2">
+        <v>85</v>
+      </c>
+      <c r="I470" s="2">
+        <v>31</v>
+      </c>
+      <c r="J470" s="2">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="K470" s="4">
+        <v>1.2444444444444445</v>
+      </c>
+      <c r="L470" s="2">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="471" spans="1:12">
+      <c r="A471">
+        <v>2007</v>
+      </c>
+      <c r="B471" s="2">
+        <v>22</v>
+      </c>
+      <c r="C471" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D471" s="2">
+        <v>341.6</v>
+      </c>
+      <c r="E471" s="2">
+        <v>145.9</v>
+      </c>
+      <c r="F471" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="G471" s="2">
+        <v>195.8</v>
+      </c>
+      <c r="H471" s="2">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="I471" s="2">
+        <v>27</v>
+      </c>
+      <c r="J471" s="2">
+        <v>39</v>
+      </c>
+      <c r="K471" s="4">
+        <v>1.2131944444444445</v>
+      </c>
+      <c r="L471" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="472" spans="1:12">
+      <c r="A472">
+        <v>2007</v>
+      </c>
+      <c r="B472" s="2">
+        <v>23</v>
+      </c>
+      <c r="C472" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D472" s="2">
+        <v>342.2</v>
+      </c>
+      <c r="E472" s="2">
+        <v>153.5</v>
+      </c>
+      <c r="F472" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G472" s="2">
+        <v>188.7</v>
+      </c>
+      <c r="H472" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="I472" s="2">
+        <v>30</v>
+      </c>
+      <c r="J472" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="K472" s="4">
+        <v>1.3041666666666667</v>
+      </c>
+      <c r="L472" s="2">
+        <v>27.3</v>
+      </c>
+    </row>
+    <row r="473" spans="1:12">
+      <c r="A473">
+        <v>2007</v>
+      </c>
+      <c r="B473" s="2">
+        <v>24</v>
+      </c>
+      <c r="C473" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D473" s="2">
+        <v>344.2</v>
+      </c>
+      <c r="E473" s="2">
+        <v>114.1</v>
+      </c>
+      <c r="F473" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G473" s="2">
+        <v>230.1</v>
+      </c>
+      <c r="H473" s="2">
+        <v>93.6</v>
+      </c>
+      <c r="I473" s="2">
+        <v>31</v>
+      </c>
+      <c r="J473" s="2">
+        <v>41.9</v>
+      </c>
+      <c r="K473" s="4">
+        <v>1.2631944444444445</v>
+      </c>
+      <c r="L473" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="474" spans="1:12">
+      <c r="A474">
+        <v>2007</v>
+      </c>
+      <c r="B474" s="2">
+        <v>25</v>
+      </c>
+      <c r="C474" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D474" s="2">
+        <v>346.2</v>
+      </c>
+      <c r="E474" s="2">
+        <v>118.5</v>
+      </c>
+      <c r="F474" s="2">
+        <v>3.8</v>
+      </c>
+      <c r="G474" s="2">
+        <v>227.7</v>
+      </c>
+      <c r="H474" s="2">
+        <v>89.9</v>
+      </c>
+      <c r="I474" s="2">
+        <v>31</v>
+      </c>
+      <c r="J474" s="2">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="K474" s="4">
+        <v>1.3958333333333333</v>
+      </c>
+      <c r="L474" s="2">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="475" spans="1:12">
+      <c r="A475">
+        <v>2007</v>
+      </c>
+      <c r="B475" s="2">
+        <v>26</v>
+      </c>
+      <c r="C475" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D475" s="2">
+        <v>348.1</v>
+      </c>
+      <c r="E475" s="2">
+        <v>102.9</v>
+      </c>
+      <c r="F475" s="2">
+        <v>4</v>
+      </c>
+      <c r="G475" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="H475" s="2">
+        <v>96.9</v>
+      </c>
+      <c r="I475" s="2">
+        <v>32</v>
+      </c>
+      <c r="J475" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="K475" s="4">
+        <v>1.2020833333333334</v>
+      </c>
+      <c r="L475" s="2">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="476" spans="1:12">
+      <c r="A476">
+        <v>2007</v>
+      </c>
+      <c r="B476" s="2">
+        <v>27</v>
+      </c>
+      <c r="C476" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D476" s="2">
+        <v>348.8</v>
+      </c>
+      <c r="E476" s="2">
+        <v>118.3</v>
+      </c>
+      <c r="F476" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G476" s="2">
+        <v>230.4</v>
+      </c>
+      <c r="H476" s="2">
+        <v>89.2</v>
+      </c>
+      <c r="I476" s="2">
+        <v>22</v>
+      </c>
+      <c r="J476" s="2">
+        <v>42.8</v>
+      </c>
+      <c r="K476" s="4">
+        <v>1.2743055555555556</v>
+      </c>
+      <c r="L476" s="2">
+        <v>24.1</v>
+      </c>
+    </row>
+    <row r="477" spans="1:12">
+      <c r="A477">
+        <v>2007</v>
+      </c>
+      <c r="B477" s="2">
+        <v>28</v>
+      </c>
+      <c r="C477" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D477" s="2">
+        <v>354.7</v>
+      </c>
+      <c r="E477" s="2">
+        <v>122.9</v>
+      </c>
+      <c r="F477" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G477" s="2">
+        <v>231.8</v>
+      </c>
+      <c r="H477" s="2">
+        <v>84.7</v>
+      </c>
+      <c r="I477" s="2">
+        <v>41</v>
+      </c>
+      <c r="J477" s="2">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="K477" s="4">
+        <v>1.3229166666666667</v>
+      </c>
+      <c r="L477" s="2">
+        <v>21.8</v>
+      </c>
+    </row>
+    <row r="478" spans="1:12">
+      <c r="A478">
+        <v>2007</v>
+      </c>
+      <c r="B478" s="2">
+        <v>29</v>
+      </c>
+      <c r="C478" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D478" s="2">
+        <v>355.5</v>
+      </c>
+      <c r="E478" s="2">
+        <v>127.1</v>
+      </c>
+      <c r="F478" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G478" s="2">
+        <v>228.4</v>
+      </c>
+      <c r="H478" s="2">
+        <v>88.2</v>
+      </c>
+      <c r="I478" s="2">
+        <v>25</v>
+      </c>
+      <c r="J478" s="2">
+        <v>37.1</v>
+      </c>
+      <c r="K478" s="4">
+        <v>1.3173611111111112</v>
+      </c>
+      <c r="L478" s="2">
+        <v>25.9</v>
+      </c>
+    </row>
+    <row r="479" spans="1:12">
+      <c r="A479">
+        <v>2007</v>
+      </c>
+      <c r="B479" s="2">
+        <v>30</v>
+      </c>
+      <c r="C479" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D479" s="2">
+        <v>359.6</v>
+      </c>
+      <c r="E479" s="2">
+        <v>129.5</v>
+      </c>
+      <c r="F479" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G479" s="2">
+        <v>230.1</v>
+      </c>
+      <c r="H479" s="2">
+        <v>83.4</v>
+      </c>
+      <c r="I479" s="2">
+        <v>28</v>
+      </c>
+      <c r="J479" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K479" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="L479" s="2">
+        <v>23.9</v>
+      </c>
+    </row>
+    <row r="480" spans="1:12">
+      <c r="A480">
+        <v>2007</v>
+      </c>
+      <c r="B480" s="2">
+        <v>31</v>
+      </c>
+      <c r="C480" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D480" s="2">
+        <v>363</v>
+      </c>
+      <c r="E480" s="2">
+        <v>124.6</v>
+      </c>
+      <c r="F480" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G480" s="2">
+        <v>238.4</v>
+      </c>
+      <c r="H480" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="I480" s="2">
+        <v>25</v>
+      </c>
+      <c r="J480" s="2">
+        <v>45.1</v>
+      </c>
+      <c r="K480" s="4">
+        <v>1.2979166666666666</v>
+      </c>
+      <c r="L480" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="481" spans="1:12">
+      <c r="A481">
+        <v>2007</v>
+      </c>
+      <c r="B481" s="2">
+        <v>32</v>
+      </c>
+      <c r="C481" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D481" s="2">
+        <v>377.6</v>
+      </c>
+      <c r="E481" s="2">
+        <v>119.4</v>
+      </c>
+      <c r="F481" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="G481" s="2">
+        <v>258.2</v>
+      </c>
+      <c r="H481" s="2">
+        <v>96.8</v>
+      </c>
+      <c r="I481" s="2">
+        <v>37</v>
+      </c>
+      <c r="J481" s="2">
+        <v>45.5</v>
+      </c>
+      <c r="K481" s="4">
+        <v>1.3604166666666666</v>
+      </c>
+      <c r="L481" s="2">
+        <v>27.8</v>
+      </c>
+    </row>
+    <row r="482" spans="1:12">
+      <c r="A482">
+        <v>2006</v>
+      </c>
+      <c r="B482" s="2">
+        <v>1</v>
+      </c>
+      <c r="C482" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D482" s="2">
+        <v>264</v>
+      </c>
+      <c r="E482" s="2">
+        <v>75.8</v>
+      </c>
+      <c r="F482" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="G482" s="2">
+        <v>188.2</v>
+      </c>
+      <c r="H482" s="2">
+        <v>63.4</v>
+      </c>
+      <c r="I482" s="2">
+        <v>60</v>
+      </c>
+      <c r="J482" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="K482" s="4">
+        <v>1.132638888888889</v>
+      </c>
+      <c r="L482" s="2">
+        <v>12.6</v>
+      </c>
+    </row>
+    <row r="483" spans="1:12">
+      <c r="A483">
+        <v>2006</v>
+      </c>
+      <c r="B483" s="2">
+        <v>2</v>
+      </c>
+      <c r="C483" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D483" s="2">
+        <v>283.60000000000002</v>
+      </c>
+      <c r="E483" s="2">
+        <v>91.2</v>
+      </c>
+      <c r="F483" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G483" s="2">
+        <v>192.4</v>
+      </c>
+      <c r="H483" s="2">
+        <v>66.8</v>
+      </c>
+      <c r="I483" s="2">
+        <v>35</v>
+      </c>
+      <c r="J483" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="K483" s="4">
+        <v>1.1611111111111112</v>
+      </c>
+      <c r="L483" s="2">
+        <v>17.100000000000001</v>
+      </c>
+    </row>
+    <row r="484" spans="1:12">
+      <c r="A484">
+        <v>2006</v>
+      </c>
+      <c r="B484" s="2">
+        <v>3</v>
+      </c>
+      <c r="C484" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D484" s="2">
+        <v>284.8</v>
+      </c>
+      <c r="E484" s="2">
+        <v>134</v>
+      </c>
+      <c r="F484" s="2">
+        <v>4</v>
+      </c>
+      <c r="G484" s="2">
+        <v>150.80000000000001</v>
+      </c>
+      <c r="H484" s="2">
+        <v>74.099999999999994</v>
+      </c>
+      <c r="I484" s="2">
+        <v>34</v>
+      </c>
+      <c r="J484" s="2">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="K484" s="4">
+        <v>1.3236111111111111</v>
+      </c>
+      <c r="L484" s="2">
+        <v>20.8</v>
+      </c>
+    </row>
+    <row r="485" spans="1:12">
+      <c r="A485">
+        <v>2006</v>
+      </c>
+      <c r="B485" s="2">
+        <v>4</v>
+      </c>
+      <c r="C485" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D485" s="2">
+        <v>289.10000000000002</v>
+      </c>
+      <c r="E485" s="2">
+        <v>101.1</v>
+      </c>
+      <c r="F485" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G485" s="2">
+        <v>187.9</v>
+      </c>
+      <c r="H485" s="2">
+        <v>84.4</v>
+      </c>
+      <c r="I485" s="2">
+        <v>47</v>
+      </c>
+      <c r="J485" s="2">
+        <v>38</v>
+      </c>
+      <c r="K485" s="4">
+        <v>1.2486111111111111</v>
+      </c>
+      <c r="L485" s="2">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:12">
+      <c r="A486">
+        <v>2006</v>
+      </c>
+      <c r="B486" s="2">
+        <v>5</v>
+      </c>
+      <c r="C486" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D486" s="2">
+        <v>294.10000000000002</v>
+      </c>
+      <c r="E486" s="2">
+        <v>99.4</v>
+      </c>
+      <c r="F486" s="2">
+        <v>4</v>
+      </c>
+      <c r="G486" s="2">
+        <v>194.8</v>
+      </c>
+      <c r="H486" s="2">
+        <v>66.5</v>
+      </c>
+      <c r="I486" s="2">
+        <v>40</v>
+      </c>
+      <c r="J486" s="2">
+        <v>31</v>
+      </c>
+      <c r="K486" s="4">
+        <v>1.2402777777777778</v>
+      </c>
+      <c r="L486" s="2">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12">
+      <c r="A487">
+        <v>2006</v>
+      </c>
+      <c r="B487" s="2">
+        <v>6</v>
+      </c>
+      <c r="C487" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D487" s="2">
+        <v>294.39999999999998</v>
+      </c>
+      <c r="E487" s="2">
+        <v>94.2</v>
+      </c>
+      <c r="F487" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G487" s="2">
+        <v>200.2</v>
+      </c>
+      <c r="H487" s="2">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="I487" s="2">
+        <v>44</v>
+      </c>
+      <c r="J487" s="2">
+        <v>35.9</v>
+      </c>
+      <c r="K487" s="4">
+        <v>1.1833333333333333</v>
+      </c>
+      <c r="L487" s="2">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12">
+      <c r="A488">
+        <v>2006</v>
+      </c>
+      <c r="B488" s="2">
+        <v>7</v>
+      </c>
+      <c r="C488" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D488" s="2">
+        <v>296.10000000000002</v>
+      </c>
+      <c r="E488" s="2">
+        <v>108.6</v>
+      </c>
+      <c r="F488" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G488" s="2">
+        <v>187.5</v>
+      </c>
+      <c r="H488" s="2">
+        <v>80.8</v>
+      </c>
+      <c r="I488" s="2">
+        <v>41</v>
+      </c>
+      <c r="J488" s="2">
+        <v>31.5</v>
+      </c>
+      <c r="K488" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L488" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="489" spans="1:12">
+      <c r="A489">
+        <v>2006</v>
+      </c>
+      <c r="B489" s="2">
+        <v>8</v>
+      </c>
+      <c r="C489" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D489" s="2">
+        <v>300.2</v>
+      </c>
+      <c r="E489" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="F489" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="G489" s="2">
+        <v>238.6</v>
+      </c>
+      <c r="H489" s="2">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="I489" s="2">
+        <v>30</v>
+      </c>
+      <c r="J489" s="2">
+        <v>34.4</v>
+      </c>
+      <c r="K489" s="4">
+        <v>1.1916666666666667</v>
+      </c>
+      <c r="L489" s="2">
+        <v>20.399999999999999</v>
+      </c>
+    </row>
+    <row r="490" spans="1:12">
+      <c r="A490">
+        <v>2006</v>
+      </c>
+      <c r="B490" s="2">
+        <v>9</v>
+      </c>
+      <c r="C490" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D490" s="2">
+        <v>300.3</v>
+      </c>
+      <c r="E490" s="2">
+        <v>88.2</v>
+      </c>
+      <c r="F490" s="2">
+        <v>3.5</v>
+      </c>
+      <c r="G490" s="2">
+        <v>212.1</v>
+      </c>
+      <c r="H490" s="2">
+        <v>78.3</v>
+      </c>
+      <c r="I490" s="2">
+        <v>39</v>
+      </c>
+      <c r="J490" s="2">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="K490" s="4">
+        <v>1.2097222222222224</v>
+      </c>
+      <c r="L490" s="2">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:12">
+      <c r="A491">
+        <v>2006</v>
+      </c>
+      <c r="B491" s="2">
+        <v>10</v>
+      </c>
+      <c r="C491" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D491" s="2">
+        <v>301.60000000000002</v>
+      </c>
+      <c r="E491" s="2">
+        <v>100.8</v>
+      </c>
+      <c r="F491" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G491" s="2">
+        <v>200.8</v>
+      </c>
+      <c r="H491" s="2">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="I491" s="2">
+        <v>61</v>
+      </c>
+      <c r="J491" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="K491" s="4">
+        <v>1.1812500000000001</v>
+      </c>
+      <c r="L491" s="2">
+        <v>18.899999999999999</v>
+      </c>
+    </row>
+    <row r="492" spans="1:12">
+      <c r="A492">
+        <v>2006</v>
+      </c>
+      <c r="B492" s="2">
+        <v>11</v>
+      </c>
+      <c r="C492" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D492" s="2">
+        <v>307.3</v>
+      </c>
+      <c r="E492" s="2">
+        <v>128.9</v>
+      </c>
+      <c r="F492" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G492" s="2">
+        <v>178.4</v>
+      </c>
+      <c r="H492" s="2">
+        <v>85.1</v>
+      </c>
+      <c r="I492" s="2">
+        <v>38</v>
+      </c>
+      <c r="J492" s="2">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K492" s="4">
+        <v>1.1708333333333334</v>
+      </c>
+      <c r="L492" s="2">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="493" spans="1:12">
+      <c r="A493">
+        <v>2006</v>
+      </c>
+      <c r="B493" s="2">
+        <v>12</v>
+      </c>
+      <c r="C493" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D493" s="2">
+        <v>320.89999999999998</v>
+      </c>
+      <c r="E493" s="2">
+        <v>114.1</v>
+      </c>
+      <c r="F493" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G493" s="2">
+        <v>206.8</v>
+      </c>
+      <c r="H493" s="2">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="I493" s="2">
+        <v>46</v>
+      </c>
+      <c r="J493" s="2">
+        <v>32.6</v>
+      </c>
+      <c r="K493" s="4">
+        <v>1.2180555555555557</v>
+      </c>
+      <c r="L493" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="494" spans="1:12">
+      <c r="A494">
+        <v>2006</v>
+      </c>
+      <c r="B494" s="2">
+        <v>13</v>
+      </c>
+      <c r="C494" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D494" s="2">
+        <v>322.8</v>
+      </c>
+      <c r="E494" s="2">
+        <v>103.7</v>
+      </c>
+      <c r="F494" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G494" s="2">
+        <v>219.1</v>
+      </c>
+      <c r="H494" s="2">
+        <v>83.2</v>
+      </c>
+      <c r="I494" s="2">
+        <v>34</v>
+      </c>
+      <c r="J494" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="K494" s="4">
+        <v>1.20625</v>
+      </c>
+      <c r="L494" s="2">
+        <v>21.9</v>
+      </c>
+    </row>
+    <row r="495" spans="1:12">
+      <c r="A495">
+        <v>2006</v>
+      </c>
+      <c r="B495" s="2">
+        <v>14</v>
+      </c>
+      <c r="C495" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D495" s="2">
+        <v>326.39999999999998</v>
+      </c>
+      <c r="E495" s="2">
+        <v>113.3</v>
+      </c>
+      <c r="F495" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G495" s="2">
+        <v>213.1</v>
+      </c>
+      <c r="H495" s="2">
+        <v>75.599999999999994</v>
+      </c>
+      <c r="I495" s="2">
+        <v>35</v>
+      </c>
+      <c r="J495" s="2">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="K495" s="4">
+        <v>1.2805555555555557</v>
+      </c>
+      <c r="L495" s="2">
+        <v>19.100000000000001</v>
+      </c>
+    </row>
+    <row r="496" spans="1:12">
+      <c r="A496">
+        <v>2006</v>
+      </c>
+      <c r="B496" s="2">
+        <v>15</v>
+      </c>
+      <c r="C496" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D496" s="2">
+        <v>328.1</v>
+      </c>
+      <c r="E496" s="2">
+        <v>136.4</v>
+      </c>
+      <c r="F496" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G496" s="2">
+        <v>191.7</v>
+      </c>
+      <c r="H496" s="2">
+        <v>73.599999999999994</v>
+      </c>
+      <c r="I496" s="2">
+        <v>40</v>
+      </c>
+      <c r="J496" s="2">
+        <v>37.4</v>
+      </c>
+      <c r="K496" s="4">
+        <v>1.3229166666666667</v>
+      </c>
+      <c r="L496" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:12">
+      <c r="A497">
+        <v>2006</v>
+      </c>
+      <c r="B497" s="2">
+        <v>16</v>
+      </c>
+      <c r="C497" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D497" s="2">
+        <v>328.9</v>
+      </c>
+      <c r="E497" s="2">
+        <v>120.5</v>
+      </c>
+      <c r="F497" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G497" s="2">
+        <v>208.4</v>
+      </c>
+      <c r="H497" s="2">
+        <v>82.3</v>
+      </c>
+      <c r="I497" s="2">
+        <v>32</v>
+      </c>
+      <c r="J497" s="2">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="K497" s="4">
+        <v>1.2618055555555556</v>
+      </c>
+      <c r="L497" s="2">
+        <v>19.7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:12">
+      <c r="A498">
+        <v>2006</v>
+      </c>
+      <c r="B498" s="2">
+        <v>17</v>
+      </c>
+      <c r="C498" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D498" s="2">
+        <v>329.4</v>
+      </c>
+      <c r="E498" s="2">
+        <v>119.8</v>
+      </c>
+      <c r="F498" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="G498" s="2">
+        <v>209.6</v>
+      </c>
+      <c r="H498" s="2">
+        <v>91</v>
+      </c>
+      <c r="I498" s="2">
+        <v>25</v>
+      </c>
+      <c r="J498" s="2">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K498" s="4">
+        <v>1.3451388888888889</v>
+      </c>
+      <c r="L498" s="2">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="499" spans="1:12">
+      <c r="A499">
+        <v>2006</v>
+      </c>
+      <c r="B499" s="2">
+        <v>18</v>
+      </c>
+      <c r="C499" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D499" s="2">
+        <v>329.6</v>
+      </c>
+      <c r="E499" s="2">
+        <v>140.9</v>
+      </c>
+      <c r="F499" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G499" s="2">
+        <v>188.7</v>
+      </c>
+      <c r="H499" s="2">
+        <v>82.5</v>
+      </c>
+      <c r="I499" s="2">
+        <v>40</v>
+      </c>
+      <c r="J499" s="2">
+        <v>36.6</v>
+      </c>
+      <c r="K499" s="4">
+        <v>1.3298611111111112</v>
+      </c>
+      <c r="L499" s="2">
+        <v>19.399999999999999</v>
+      </c>
+    </row>
+    <row r="500" spans="1:12">
+      <c r="A500">
+        <v>2006</v>
+      </c>
+      <c r="B500" s="2">
+        <v>19</v>
+      </c>
+      <c r="C500" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D500" s="2">
+        <v>330.3</v>
+      </c>
+      <c r="E500" s="2">
+        <v>126.8</v>
+      </c>
+      <c r="F500" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G500" s="2">
+        <v>203.5</v>
+      </c>
+      <c r="H500" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="I500" s="2">
+        <v>41</v>
+      </c>
+      <c r="J500" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="K500" s="4">
+        <v>1.2583333333333333</v>
+      </c>
+      <c r="L500" s="2">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="501" spans="1:12">
+      <c r="A501">
+        <v>2006</v>
+      </c>
+      <c r="B501" s="2">
+        <v>20</v>
+      </c>
+      <c r="C501" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D501" s="2">
+        <v>331.6</v>
+      </c>
+      <c r="E501" s="2">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="F501" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G501" s="2">
+        <v>201.4</v>
+      </c>
+      <c r="H501" s="2">
+        <v>78</v>
+      </c>
+      <c r="I501" s="2">
+        <v>35</v>
+      </c>
+      <c r="J501" s="2">
+        <v>36.5</v>
+      </c>
+      <c r="K501" s="4">
+        <v>1.20625</v>
+      </c>
+      <c r="L501" s="2">
+        <v>18.399999999999999</v>
+      </c>
+    </row>
+    <row r="502" spans="1:12">
+      <c r="A502">
+        <v>2006</v>
+      </c>
+      <c r="B502" s="2">
+        <v>21</v>
+      </c>
+      <c r="C502" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D502" s="2">
+        <v>332.2</v>
+      </c>
+      <c r="E502" s="2">
+        <v>173</v>
+      </c>
+      <c r="F502" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="G502" s="2">
+        <v>159.19999999999999</v>
+      </c>
+      <c r="H502" s="2">
+        <v>80.400000000000006</v>
+      </c>
+      <c r="I502" s="2">
+        <v>25</v>
+      </c>
+      <c r="J502" s="2">
+        <v>47.1</v>
+      </c>
+      <c r="K502" s="4">
+        <v>1.2694444444444444</v>
+      </c>
+      <c r="L502" s="2">
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:12">
+      <c r="A503">
+        <v>2006</v>
+      </c>
+      <c r="B503" s="2">
+        <v>22</v>
+      </c>
+      <c r="C503" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D503" s="2">
+        <v>332.8</v>
+      </c>
+      <c r="E503" s="2">
+        <v>103.6</v>
+      </c>
+      <c r="F503" s="2">
+        <v>3.7</v>
+      </c>
+      <c r="G503" s="2">
+        <v>229.2</v>
+      </c>
+      <c r="H503" s="2">
+        <v>88.8</v>
+      </c>
+      <c r="I503" s="2">
+        <v>37</v>
+      </c>
+      <c r="J503" s="2">
+        <v>42</v>
+      </c>
+      <c r="K503" s="4">
+        <v>1.2666666666666666</v>
+      </c>
+      <c r="L503" s="2">
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:12">
+      <c r="A504">
+        <v>2006</v>
+      </c>
+      <c r="B504" s="2">
+        <v>23</v>
+      </c>
+      <c r="C504" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D504" s="2">
+        <v>335.1</v>
+      </c>
+      <c r="E504" s="2">
+        <v>145.4</v>
+      </c>
+      <c r="F504" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G504" s="2">
+        <v>189.7</v>
+      </c>
+      <c r="H504" s="2">
+        <v>81.099999999999994</v>
+      </c>
+      <c r="I504" s="2">
+        <v>34</v>
+      </c>
+      <c r="J504" s="2">
+        <v>45.4</v>
+      </c>
+      <c r="K504" s="4">
+        <v>1.211111111111111</v>
+      </c>
+      <c r="L504" s="2">
+        <v>23.8</v>
+      </c>
+    </row>
+    <row r="505" spans="1:12">
+      <c r="A505">
+        <v>2006</v>
+      </c>
+      <c r="B505" s="2">
+        <v>24</v>
+      </c>
+      <c r="C505" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D505" s="2">
+        <v>337.5</v>
+      </c>
+      <c r="E505" s="2">
+        <v>122.2</v>
+      </c>
+      <c r="F505" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G505" s="2">
+        <v>215.2</v>
+      </c>
+      <c r="H505" s="2">
+        <v>91.8</v>
+      </c>
+      <c r="I505" s="2">
+        <v>28</v>
+      </c>
+      <c r="J505" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K505" s="4">
+        <v>1.2861111111111112</v>
+      </c>
+      <c r="L505" s="2">
+        <v>22.9</v>
+      </c>
+    </row>
+    <row r="506" spans="1:12">
+      <c r="A506">
+        <v>2006</v>
+      </c>
+      <c r="B506" s="2">
+        <v>25</v>
+      </c>
+      <c r="C506" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D506" s="2">
+        <v>342.4</v>
+      </c>
+      <c r="E506" s="2">
+        <v>114.4</v>
+      </c>
+      <c r="F506" s="2">
+        <v>4</v>
+      </c>
+      <c r="G506" s="2">
+        <v>228.1</v>
+      </c>
+      <c r="H506" s="2">
+        <v>79</v>
+      </c>
+      <c r="I506" s="2">
+        <v>32</v>
+      </c>
+      <c r="J506" s="2">
+        <v>42.9</v>
+      </c>
+      <c r="K506" s="4">
+        <v>1.2826388888888889</v>
+      </c>
+      <c r="L506" s="2">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="507" spans="1:12">
+      <c r="A507">
+        <v>2006</v>
+      </c>
+      <c r="B507" s="2">
+        <v>26</v>
+      </c>
+      <c r="C507" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D507" s="2">
+        <v>344.2</v>
+      </c>
+      <c r="E507" s="2">
+        <v>121</v>
+      </c>
+      <c r="F507" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G507" s="2">
+        <v>223.2</v>
+      </c>
+      <c r="H507" s="2">
+        <v>90.9</v>
+      </c>
+      <c r="I507" s="2">
+        <v>34</v>
+      </c>
+      <c r="J507" s="2">
+        <v>44.4</v>
+      </c>
+      <c r="K507" s="4">
+        <v>1.325</v>
+      </c>
+      <c r="L507" s="2">
+        <v>25.8</v>
+      </c>
+    </row>
+    <row r="508" spans="1:12">
+      <c r="A508">
+        <v>2006</v>
+      </c>
+      <c r="B508" s="2">
+        <v>27</v>
+      </c>
+      <c r="C508" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D508" s="2">
+        <v>344.8</v>
+      </c>
+      <c r="E508" s="2">
+        <v>142.19999999999999</v>
+      </c>
+      <c r="F508" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="G508" s="2">
+        <v>202.6</v>
+      </c>
+      <c r="H508" s="2">
+        <v>75.900000000000006</v>
+      </c>
+      <c r="I508" s="2">
+        <v>28</v>
+      </c>
+      <c r="J508" s="2">
+        <v>43.9</v>
+      </c>
+      <c r="K508" s="4">
+        <v>1.2868055555555555</v>
+      </c>
+      <c r="L508" s="2">
+        <v>22.2</v>
+      </c>
+    </row>
+    <row r="509" spans="1:12">
+      <c r="A509">
+        <v>2006</v>
+      </c>
+      <c r="B509" s="2">
+        <v>28</v>
+      </c>
+      <c r="C509" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D509" s="2">
+        <v>345.6</v>
+      </c>
+      <c r="E509" s="2">
+        <v>125.6</v>
+      </c>
+      <c r="F509" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G509" s="2">
+        <v>220</v>
+      </c>
+      <c r="H509" s="2">
+        <v>92.3</v>
+      </c>
+      <c r="I509" s="2">
+        <v>30</v>
+      </c>
+      <c r="J509" s="2">
+        <v>43.5</v>
+      </c>
+      <c r="K509" s="4">
+        <v>1.3458333333333332</v>
+      </c>
+      <c r="L509" s="2">
+        <v>24.9</v>
+      </c>
+    </row>
+    <row r="510" spans="1:12">
+      <c r="A510">
+        <v>2006</v>
+      </c>
+      <c r="B510" s="2">
+        <v>29</v>
+      </c>
+      <c r="C510" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D510" s="2">
+        <v>349.4</v>
+      </c>
+      <c r="E510" s="2">
+        <v>118.6</v>
+      </c>
+      <c r="F510" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="G510" s="2">
+        <v>230.9</v>
+      </c>
+      <c r="H510" s="2">
+        <v>85.4</v>
+      </c>
+      <c r="I510" s="2">
+        <v>38</v>
+      </c>
+      <c r="J510" s="2">
+        <v>41.3</v>
+      </c>
+      <c r="K510" s="4">
+        <v>1.2506944444444443</v>
+      </c>
+      <c r="L510" s="2">
+        <v>24.3</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12">
+      <c r="A511">
+        <v>2006</v>
+      </c>
+      <c r="B511" s="2">
+        <v>30</v>
+      </c>
+      <c r="C511" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D511" s="2">
+        <v>355.1</v>
+      </c>
+      <c r="E511" s="2">
+        <v>116.4</v>
+      </c>
+      <c r="F511" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="G511" s="2">
+        <v>238.6</v>
+      </c>
+      <c r="H511" s="2">
+        <v>84.9</v>
+      </c>
+      <c r="I511" s="2">
+        <v>35</v>
+      </c>
+      <c r="J511" s="2">
+        <v>41.7</v>
+      </c>
+      <c r="K511" s="4">
+        <v>1.3118055555555557</v>
+      </c>
+      <c r="L511" s="2">
+        <v>20.7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:12">
+      <c r="A512">
+        <v>2006</v>
+      </c>
+      <c r="B512" s="2">
+        <v>31</v>
+      </c>
+      <c r="C512" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D512" s="2">
+        <v>355.5</v>
+      </c>
+      <c r="E512" s="2">
+        <v>137.30000000000001</v>
+      </c>
+      <c r="F512" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G512" s="2">
+        <v>218.2</v>
+      </c>
+      <c r="H512" s="2">
+        <v>97.8</v>
+      </c>
+      <c r="I512" s="2">
+        <v>19</v>
+      </c>
+      <c r="J512" s="2">
+        <v>43.7</v>
+      </c>
+      <c r="K512" s="4">
+        <v>1.2611111111111111</v>
+      </c>
+      <c r="L512" s="2">
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="513" spans="1:12">
+      <c r="A513">
+        <v>2006</v>
+      </c>
+      <c r="B513" s="2">
+        <v>32</v>
+      </c>
+      <c r="C513" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D513" s="2">
+        <v>369.7</v>
+      </c>
+      <c r="E513" s="2">
+        <v>144.6</v>
+      </c>
+      <c r="F513" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G513" s="2">
+        <v>225.1</v>
+      </c>
+      <c r="H513" s="2">
+        <v>86</v>
+      </c>
+      <c r="I513" s="2">
+        <v>26</v>
+      </c>
+      <c r="J513" s="2">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="K513" s="4">
+        <v>1.3680555555555556</v>
+      </c>
+      <c r="L513" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -13078,6 +20374,198 @@
     <hyperlink ref="C319" r:id="rId318" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{C35277D9-C436-DD43-BBAC-F1A70BF19162}"/>
     <hyperlink ref="C320" r:id="rId319" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{84D8B4EC-E981-834D-8625-B90BA8AA2B73}"/>
     <hyperlink ref="C321" r:id="rId320" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{B02C9506-BAA4-664E-AC1F-67978FCEABEE}"/>
+    <hyperlink ref="C322" r:id="rId321" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{D5B0A591-4A5F-4E43-BE6A-0402CACD3E2F}"/>
+    <hyperlink ref="C323" r:id="rId322" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{7D216D07-B9DA-4C41-A98A-261B30807A93}"/>
+    <hyperlink ref="C324" r:id="rId323" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{C3F1D1CB-15C0-984B-992A-B178698AD229}"/>
+    <hyperlink ref="C325" r:id="rId324" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{BA4B02E9-CB27-BF4B-B5B7-AFAF7EE16E8F}"/>
+    <hyperlink ref="C326" r:id="rId325" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{A55A7BB8-DA98-B84A-A80F-3E21A8E2B325}"/>
+    <hyperlink ref="C327" r:id="rId326" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{84BB8478-EAA4-4A44-ADB2-3BFC8DB2EFC6}"/>
+    <hyperlink ref="C328" r:id="rId327" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{12348972-B8E9-2B43-9B03-11A1D8D5225A}"/>
+    <hyperlink ref="C329" r:id="rId328" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{C9E23601-3278-CC4F-B054-4D0C0704DA8A}"/>
+    <hyperlink ref="C330" r:id="rId329" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{20BE88AB-37D6-3548-81FA-2BB054BBCC3E}"/>
+    <hyperlink ref="C331" r:id="rId330" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{DD483504-0D87-2E49-87A5-9DE6BC6B9CBF}"/>
+    <hyperlink ref="C332" r:id="rId331" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{575E15DB-F809-9247-9DBD-DA1CFA9674AF}"/>
+    <hyperlink ref="C333" r:id="rId332" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{9E7CE787-53EB-EB42-9EFA-4355E46AA3C1}"/>
+    <hyperlink ref="C334" r:id="rId333" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{F665DFAD-DDF1-EE4F-B857-3D0C25998F6A}"/>
+    <hyperlink ref="C335" r:id="rId334" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{C1D4AAB2-7206-0445-BF11-A3F82CDA3E5A}"/>
+    <hyperlink ref="C336" r:id="rId335" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{56B38102-E48B-2C45-9071-0BFBA8D13635}"/>
+    <hyperlink ref="C337" r:id="rId336" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{61CB2BA8-FF4C-8C4B-919E-2C6E1AEB1FA7}"/>
+    <hyperlink ref="C338" r:id="rId337" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{C3B867E3-CCBF-6F43-97C9-3842803901E7}"/>
+    <hyperlink ref="C339" r:id="rId338" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{D16D648B-0215-E146-AE8C-B664020D55B6}"/>
+    <hyperlink ref="C340" r:id="rId339" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{0BA90006-AADA-774E-940E-6E814730D402}"/>
+    <hyperlink ref="C341" r:id="rId340" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{DEEE9A80-D361-4149-B5E5-E6F97AAC1D65}"/>
+    <hyperlink ref="C342" r:id="rId341" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{092C2234-6BD7-5349-B643-6346F0AC3C84}"/>
+    <hyperlink ref="C343" r:id="rId342" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{B78254CA-86E0-5946-BEF6-A4613DD02498}"/>
+    <hyperlink ref="C344" r:id="rId343" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{CC50CBEE-9CEF-6341-A765-B07C3FEDBD1A}"/>
+    <hyperlink ref="C345" r:id="rId344" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{9F3FF1EA-965C-8344-AC06-7469DDC07FB7}"/>
+    <hyperlink ref="C346" r:id="rId345" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{12278B74-C25D-F549-8306-F70CB18D8A67}"/>
+    <hyperlink ref="C347" r:id="rId346" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{201EF97C-BD4D-D248-BCD5-D3AEE5A44181}"/>
+    <hyperlink ref="C348" r:id="rId347" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{65A95C9D-80E6-1A4C-A2E6-77F8AE822EE9}"/>
+    <hyperlink ref="C349" r:id="rId348" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{C6D26615-2FA5-324F-9998-AF9C39377490}"/>
+    <hyperlink ref="C350" r:id="rId349" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{41411C50-8600-AE41-A0B4-E803FD42A829}"/>
+    <hyperlink ref="C351" r:id="rId350" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{189FF5C3-B89E-CB42-829D-089C56C5E34E}"/>
+    <hyperlink ref="C352" r:id="rId351" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{D904B52E-431B-1840-8E21-47939F1BBE8A}"/>
+    <hyperlink ref="C353" r:id="rId352" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{E386B30F-3F8A-3941-BC9A-A30FDED08322}"/>
+    <hyperlink ref="C354" r:id="rId353" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{CDD54F79-9E20-C74B-9B0F-1F8BDC527D22}"/>
+    <hyperlink ref="C355" r:id="rId354" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{FBA77DE7-6851-7E47-BA1B-3394078CAA1B}"/>
+    <hyperlink ref="C356" r:id="rId355" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{9BC0A468-1EF7-8047-B1C1-D1868DA4D948}"/>
+    <hyperlink ref="C357" r:id="rId356" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{2C220097-6328-5447-B3C8-552E310453CE}"/>
+    <hyperlink ref="C358" r:id="rId357" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{D9A02174-5F9E-5440-8707-74963E4AD8A1}"/>
+    <hyperlink ref="C359" r:id="rId358" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{DEC89C42-8901-DB4C-A13D-4B563D92EB7F}"/>
+    <hyperlink ref="C360" r:id="rId359" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{1242C2A7-AF69-8345-8933-E52E4317BB86}"/>
+    <hyperlink ref="C361" r:id="rId360" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{169F1A00-BDC3-EE43-87A2-71D9F4AD9384}"/>
+    <hyperlink ref="C362" r:id="rId361" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{AF671697-2F59-6B47-8866-FDA72740C6DE}"/>
+    <hyperlink ref="C363" r:id="rId362" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{AE0E6341-992F-D548-BEF0-2E720192E295}"/>
+    <hyperlink ref="C364" r:id="rId363" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{309AFCAB-1BEF-234E-B1AE-E49043325E22}"/>
+    <hyperlink ref="C365" r:id="rId364" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{181E1B1F-4061-EC49-8981-B92116848AE5}"/>
+    <hyperlink ref="C366" r:id="rId365" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{F01674A4-6BBA-B14D-9D4F-07519CA310FD}"/>
+    <hyperlink ref="C367" r:id="rId366" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{EFAA077B-2FD2-5F4C-9C3D-8FB19CF9EB33}"/>
+    <hyperlink ref="C368" r:id="rId367" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{767C73ED-7629-A440-93C0-FB5580B4A258}"/>
+    <hyperlink ref="C369" r:id="rId368" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{D3D8E327-A5C0-284C-A882-E0E6665AAAF3}"/>
+    <hyperlink ref="C370" r:id="rId369" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{15921879-B411-8C44-A56E-F6988CC7987F}"/>
+    <hyperlink ref="C371" r:id="rId370" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{9B9C2BEA-963B-454A-8EEC-AD92C0F37F75}"/>
+    <hyperlink ref="C372" r:id="rId371" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{29385496-317A-FC40-A772-A1E771403982}"/>
+    <hyperlink ref="C373" r:id="rId372" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{EA4A2E6A-7D74-D145-8651-4D07861481FB}"/>
+    <hyperlink ref="C374" r:id="rId373" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{E72D9710-49D7-7842-84C5-993DAD4D21BB}"/>
+    <hyperlink ref="C375" r:id="rId374" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{0C659488-B286-314A-8AEF-EA9EAA548D7B}"/>
+    <hyperlink ref="C376" r:id="rId375" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{8C7A2C24-20AD-F44D-B7AF-ECF83C1EE798}"/>
+    <hyperlink ref="C377" r:id="rId376" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{3F04356E-E67B-454F-8152-C11A0DE895B0}"/>
+    <hyperlink ref="C378" r:id="rId377" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{4CAE3C49-A871-BD40-B8FC-9F58A2157279}"/>
+    <hyperlink ref="C379" r:id="rId378" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{587AF2FB-8FEE-FA43-9BA4-1E6A769D83D5}"/>
+    <hyperlink ref="C380" r:id="rId379" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{F2E95D56-A12A-2043-BB58-466A0CC0732D}"/>
+    <hyperlink ref="C381" r:id="rId380" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{F2122ABD-F1F3-D748-9ABE-95D833563309}"/>
+    <hyperlink ref="C382" r:id="rId381" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{6B8BA4AE-5E87-864E-9E03-CD85C0C3F45A}"/>
+    <hyperlink ref="C383" r:id="rId382" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{F9184179-3FA4-9A43-A88C-B31B6CDBCD4F}"/>
+    <hyperlink ref="C384" r:id="rId383" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{548533EF-FFE5-B045-BF25-9CEA67058FDA}"/>
+    <hyperlink ref="C385" r:id="rId384" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{529F9532-D38A-F146-A5A3-A88FBF529384}"/>
+    <hyperlink ref="C386" r:id="rId385" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{2B4240B3-86B5-FA4F-80A2-87E8D1839595}"/>
+    <hyperlink ref="C387" r:id="rId386" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{0A9890D1-B9A1-D442-AED5-F2148F7E24EF}"/>
+    <hyperlink ref="C388" r:id="rId387" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{12269314-1F44-1548-900D-E9277E711A6B}"/>
+    <hyperlink ref="C389" r:id="rId388" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{361C52AF-6D2D-7B40-8807-830E20B53E6B}"/>
+    <hyperlink ref="C390" r:id="rId389" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{F5C665EB-3696-934C-A95E-5A8CF03E8451}"/>
+    <hyperlink ref="C391" r:id="rId390" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{9A558053-EE09-704E-ABB5-795AC3B8E50B}"/>
+    <hyperlink ref="C392" r:id="rId391" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{A0368D21-3CF9-0D40-B895-A7E3799CC004}"/>
+    <hyperlink ref="C393" r:id="rId392" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{88BC1F43-FE2A-F94B-979E-4A35E6EE8C92}"/>
+    <hyperlink ref="C394" r:id="rId393" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{25229A63-14CC-D141-AB01-DDA0497179AB}"/>
+    <hyperlink ref="C395" r:id="rId394" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{B6F85AA7-439C-FD44-B8A7-38F031863D58}"/>
+    <hyperlink ref="C396" r:id="rId395" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{706584FA-7A45-0143-9ABB-01DE610BFF1E}"/>
+    <hyperlink ref="C397" r:id="rId396" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{AF8ADC86-06BF-9A42-8DFA-92072FCACDDD}"/>
+    <hyperlink ref="C398" r:id="rId397" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{2825ECF5-6A94-BF44-9EBE-98269961D0EE}"/>
+    <hyperlink ref="C399" r:id="rId398" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{DB0218BB-9829-AE47-953B-FD4E257CDE07}"/>
+    <hyperlink ref="C400" r:id="rId399" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{822DE2D7-DB08-5049-8B59-F5B08EF772F2}"/>
+    <hyperlink ref="C401" r:id="rId400" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{F376B256-2FD6-C047-A93E-8515958C81FD}"/>
+    <hyperlink ref="C402" r:id="rId401" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{BF78A0BF-CCD9-D349-960B-54D23FE94EF9}"/>
+    <hyperlink ref="C403" r:id="rId402" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{B237D876-C57A-7F4A-9E8D-83B79A2E6B9A}"/>
+    <hyperlink ref="C404" r:id="rId403" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{2330E5E2-82A9-434A-B3FD-974982973DC7}"/>
+    <hyperlink ref="C405" r:id="rId404" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{1DCAB63B-DC78-4D44-AC47-FCAF88B0AFF3}"/>
+    <hyperlink ref="C406" r:id="rId405" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{685261C8-44DC-AE49-9B6A-B5B7B85DDF77}"/>
+    <hyperlink ref="C407" r:id="rId406" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{FB3E8E12-1672-8D4B-8768-70B762191415}"/>
+    <hyperlink ref="C408" r:id="rId407" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{00624359-0BFF-674D-8342-7795A10500AA}"/>
+    <hyperlink ref="C409" r:id="rId408" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{D64AFB47-469B-ED40-9C35-3AAEAD367F39}"/>
+    <hyperlink ref="C410" r:id="rId409" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{E6D97F7A-95DD-6243-8E24-B6F3946F87CE}"/>
+    <hyperlink ref="C411" r:id="rId410" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{3CF6DC1D-E54D-244F-9735-9FE7601A7A23}"/>
+    <hyperlink ref="C412" r:id="rId411" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{CA2A6ABA-02E8-D240-9A8B-084A72C9F9D7}"/>
+    <hyperlink ref="C413" r:id="rId412" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{1D8A05B6-D66C-4240-935E-BBB5BB8E9B55}"/>
+    <hyperlink ref="C414" r:id="rId413" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{4EC0F985-86E8-934B-B5B1-5AF3C99F10B7}"/>
+    <hyperlink ref="C415" r:id="rId414" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{F5084926-D930-AF47-8978-7241B246AF55}"/>
+    <hyperlink ref="C416" r:id="rId415" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{5C9D886B-D00C-5D42-9B1E-B6B86FBF7DD8}"/>
+    <hyperlink ref="C417" r:id="rId416" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{07E2A811-17C7-844A-AE75-76B6B85E5BE8}"/>
+    <hyperlink ref="C418" r:id="rId417" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{BCCCC414-49B3-F649-BB3B-8770576FB8B6}"/>
+    <hyperlink ref="C419" r:id="rId418" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{6D0600EB-00D5-9F4C-A2FD-EC092515D5DA}"/>
+    <hyperlink ref="C420" r:id="rId419" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{DF7D924F-3DB0-E943-8E1C-FC18D33B55F0}"/>
+    <hyperlink ref="C421" r:id="rId420" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{15A49F60-3CCE-7146-8AE4-6B006E18CA4F}"/>
+    <hyperlink ref="C422" r:id="rId421" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{8BA669CD-2CE5-A748-98BC-816A7AF8663F}"/>
+    <hyperlink ref="C423" r:id="rId422" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{0F161F6E-6077-2E4D-9E4A-741A81B3CC30}"/>
+    <hyperlink ref="C424" r:id="rId423" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{7DFF4DAA-B907-2842-86E6-E97753AE2986}"/>
+    <hyperlink ref="C425" r:id="rId424" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{766FC647-B071-B54D-913B-9E5DEE247CCF}"/>
+    <hyperlink ref="C426" r:id="rId425" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{3EDE7274-A74A-7942-AF8B-F83D287F4340}"/>
+    <hyperlink ref="C427" r:id="rId426" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{F1338D0A-A284-F645-8DDB-0C6BFC4F7FD3}"/>
+    <hyperlink ref="C428" r:id="rId427" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{4C1FF472-A6F5-014C-B076-A945551E02AF}"/>
+    <hyperlink ref="C429" r:id="rId428" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{7C3F6E15-8F92-E549-A041-3A65E65BE03E}"/>
+    <hyperlink ref="C430" r:id="rId429" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{11970D89-F41C-EE48-848B-62524709E9BC}"/>
+    <hyperlink ref="C431" r:id="rId430" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{AC0FDF33-D35E-8C43-A503-BB16876C9772}"/>
+    <hyperlink ref="C432" r:id="rId431" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{568BF40F-0FB6-F343-9928-8DCB0195547C}"/>
+    <hyperlink ref="C433" r:id="rId432" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{A042A1B2-279E-0F4F-BF61-436F11B39123}"/>
+    <hyperlink ref="C434" r:id="rId433" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{CFC25C09-E332-414C-8E2C-2F7AA090D32B}"/>
+    <hyperlink ref="C435" r:id="rId434" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{E6D37874-390D-0D49-BC94-E7912C4623A4}"/>
+    <hyperlink ref="C436" r:id="rId435" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{5E0A623B-7A65-3347-AA2C-236DBC8E0730}"/>
+    <hyperlink ref="C437" r:id="rId436" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{4371E272-6217-A54A-A874-2756C04954BA}"/>
+    <hyperlink ref="C438" r:id="rId437" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{02C8346C-D550-954D-8EEF-F7B20A9F16FB}"/>
+    <hyperlink ref="C439" r:id="rId438" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{B6A4AF29-15E5-5342-9D24-AEDDA508CA20}"/>
+    <hyperlink ref="C440" r:id="rId439" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{C7983C57-3697-0445-A36B-6909F0C3AFA8}"/>
+    <hyperlink ref="C441" r:id="rId440" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{F8E9F4FF-07C3-2047-8E15-09924EE52B20}"/>
+    <hyperlink ref="C442" r:id="rId441" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{5D927856-2D51-ED44-AA04-E16848A3F53A}"/>
+    <hyperlink ref="C443" r:id="rId442" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{757DF2BA-36E3-2B4E-9A30-DD50CF9A98A2}"/>
+    <hyperlink ref="C444" r:id="rId443" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{84135493-ABC7-3E4E-A268-C1826B1FD2ED}"/>
+    <hyperlink ref="C445" r:id="rId444" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{0CA80D21-A53F-6540-A76B-0DAB1D15700B}"/>
+    <hyperlink ref="C446" r:id="rId445" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{EF35D4BB-EA96-464D-9250-A30DF3777FF4}"/>
+    <hyperlink ref="C447" r:id="rId446" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{7C91F174-4104-4943-B8A6-054888F68F87}"/>
+    <hyperlink ref="C448" r:id="rId447" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{3FB3CFB9-2EEE-2D47-A4D7-BFDCF1B81548}"/>
+    <hyperlink ref="C449" r:id="rId448" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{DE896DF9-27A2-D449-8733-1FC051A1D5A6}"/>
+    <hyperlink ref="C450" r:id="rId449" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{A0561DF3-E5C3-0B4D-BB88-89377605D2B7}"/>
+    <hyperlink ref="C451" r:id="rId450" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{E3D28B9E-D588-2348-B52E-88128EC1A175}"/>
+    <hyperlink ref="C452" r:id="rId451" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{C02CF876-3DAF-B647-BA0D-0DA80E49932E}"/>
+    <hyperlink ref="C453" r:id="rId452" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{B1368FF7-0A2A-204E-A7D9-5097DB30E4CF}"/>
+    <hyperlink ref="C454" r:id="rId453" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{B6B89F51-ED6D-BF41-AD4F-94449604D397}"/>
+    <hyperlink ref="C455" r:id="rId454" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{7AC2802E-ED04-3B49-AFE8-3317FFBC31B1}"/>
+    <hyperlink ref="C456" r:id="rId455" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{DAC3CF33-7380-5A49-B0F7-357E36E34B87}"/>
+    <hyperlink ref="C457" r:id="rId456" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{21CB3F13-16B7-144F-9389-2A58E5EA0727}"/>
+    <hyperlink ref="C458" r:id="rId457" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{EB6295EB-FB51-BF41-AED6-F5C9358F00DD}"/>
+    <hyperlink ref="C459" r:id="rId458" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{34EEC196-8790-1F4B-A6C7-5BFA6BFB37C2}"/>
+    <hyperlink ref="C460" r:id="rId459" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{024B4CD0-03FE-964D-A602-11943CBF2620}"/>
+    <hyperlink ref="C461" r:id="rId460" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{2F1F5D84-461A-7D42-B1A1-F50005666CCE}"/>
+    <hyperlink ref="C462" r:id="rId461" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{73A56478-5DD2-9143-AF06-F2A81E0DEF2E}"/>
+    <hyperlink ref="C463" r:id="rId462" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{B564F386-83F9-834A-8D52-65C1A9974691}"/>
+    <hyperlink ref="C464" r:id="rId463" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{5B71E6BB-283D-734C-B695-80E072954B40}"/>
+    <hyperlink ref="C465" r:id="rId464" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{78F3AA0D-192E-E04C-8C5E-C9CC70D8A364}"/>
+    <hyperlink ref="C466" r:id="rId465" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{3796B4D6-1969-A04E-B583-CF10829341A1}"/>
+    <hyperlink ref="C467" r:id="rId466" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{8761F069-3EE8-C94C-ADB3-D8CA023A4199}"/>
+    <hyperlink ref="C468" r:id="rId467" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{7FD42A11-72A3-0443-8A4E-6E6F75673DA7}"/>
+    <hyperlink ref="C469" r:id="rId468" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{9ADCD9CF-52A8-D045-ABE4-74E0DAF82A6E}"/>
+    <hyperlink ref="C470" r:id="rId469" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{2EAC682A-A583-8B41-9602-402399D81882}"/>
+    <hyperlink ref="C471" r:id="rId470" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{1D39E14A-1A09-2045-9D36-736E29D41E82}"/>
+    <hyperlink ref="C472" r:id="rId471" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{4912960B-4B4E-D146-812F-51E4D38CEB75}"/>
+    <hyperlink ref="C473" r:id="rId472" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{D0E1F389-BEB5-1141-A0B4-05D6FBB874F0}"/>
+    <hyperlink ref="C474" r:id="rId473" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{A073F5EC-5F62-C348-8246-01203AA5D106}"/>
+    <hyperlink ref="C475" r:id="rId474" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{AF65A122-DCC6-4A44-800B-1893EDAC2EB1}"/>
+    <hyperlink ref="C476" r:id="rId475" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{749E3028-B428-F546-851B-F3FF0191EE02}"/>
+    <hyperlink ref="C477" r:id="rId476" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{5723B901-8864-344E-AE23-3334CFD27188}"/>
+    <hyperlink ref="C478" r:id="rId477" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{53FF9AE6-FC5F-394E-8ED1-F817ECEBBBE7}"/>
+    <hyperlink ref="C479" r:id="rId478" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{071F8B16-F5F5-7443-BC97-32BDEA1468B7}"/>
+    <hyperlink ref="C480" r:id="rId479" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{344CF041-CB01-0646-B35B-A91156A27587}"/>
+    <hyperlink ref="C481" r:id="rId480" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{AD3A1012-896A-8F4A-8BA8-8224A0D4ABCE}"/>
+    <hyperlink ref="C482" r:id="rId481" display="https://www.covers.com/sport/football/nfl/teams/main/baltimore-ravens" xr:uid="{DD27B955-BD0F-E142-92E0-B4D022290939}"/>
+    <hyperlink ref="C483" r:id="rId482" display="https://www.covers.com/sport/football/nfl/teams/main/jacksonville-jaguars" xr:uid="{C23CB742-901C-5646-BC3C-FCA38B875AB4}"/>
+    <hyperlink ref="C484" r:id="rId483" display="https://www.covers.com/sport/football/nfl/teams/main/oakland-raiders" xr:uid="{9D9FAC62-640B-1D47-B9B9-30B351689745}"/>
+    <hyperlink ref="C485" r:id="rId484" display="https://www.covers.com/sport/football/nfl/teams/main/miami-dolphins" xr:uid="{0853FB16-1561-F349-86F3-38CFAAA51CDA}"/>
+    <hyperlink ref="C486" r:id="rId485" display="https://www.covers.com/sport/football/nfl/teams/main/chicago-bears" xr:uid="{986FFDCE-12B4-AC4D-9208-706CBA310F03}"/>
+    <hyperlink ref="C487" r:id="rId486" display="https://www.covers.com/sport/football/nfl/teams/main/new-england-patriots" xr:uid="{7578133C-FBE5-F04A-B2AB-19E2CDEEE9E5}"/>
+    <hyperlink ref="C488" r:id="rId487" display="https://www.covers.com/sport/football/nfl/teams/main/carolina-panthers" xr:uid="{49B10C83-BD64-454C-9249-4AD834B51124}"/>
+    <hyperlink ref="C489" r:id="rId488" display="https://www.covers.com/sport/football/nfl/teams/main/minnesota-vikings" xr:uid="{51503105-E394-DD4D-BEA1-CE369C6156FD}"/>
+    <hyperlink ref="C490" r:id="rId489" display="https://www.covers.com/sport/football/nfl/teams/main/pittsburgh-steelers" xr:uid="{A0B8A1FB-6F45-4049-A855-7BEFC5DF12C6}"/>
+    <hyperlink ref="C491" r:id="rId490" display="https://www.covers.com/sport/football/nfl/teams/main/san-diego-chargers" xr:uid="{39561A95-037A-B34D-ADD8-6C8BCD90F27D}"/>
+    <hyperlink ref="C492" r:id="rId491" display="https://www.covers.com/sport/football/nfl/teams/main/new-orleans-saints" xr:uid="{FDC44DDF-4F38-5A49-AE35-234ADF7E343E}"/>
+    <hyperlink ref="C493" r:id="rId492" display="https://www.covers.com/sport/football/nfl/teams/main/green-bay-packers" xr:uid="{F2C56F2E-A229-1847-AE4F-95C9267C3D3F}"/>
+    <hyperlink ref="C494" r:id="rId493" display="https://www.covers.com/sport/football/nfl/teams/main/dallas-cowboys" xr:uid="{C9CD09FE-3A07-F942-A34B-7DBF48310EA7}"/>
+    <hyperlink ref="C495" r:id="rId494" display="https://www.covers.com/sport/football/nfl/teams/main/denver-broncos" xr:uid="{032B9950-DC31-9046-A0F4-D55A41EBA23D}"/>
+    <hyperlink ref="C496" r:id="rId495" display="https://www.covers.com/sport/football/nfl/teams/main/philadelphia-eagles" xr:uid="{F0FCCFF5-92F4-0B45-BF4F-F5D643375591}"/>
+    <hyperlink ref="C497" r:id="rId496" display="https://www.covers.com/sport/football/nfl/teams/main/kansas-city-chiefs" xr:uid="{25FB6692-89A8-BF45-89C9-FAEEB9702A3F}"/>
+    <hyperlink ref="C498" r:id="rId497" display="https://www.covers.com/sport/football/nfl/teams/main/tampa-bay-buccaneers" xr:uid="{C976EBC4-73C4-3F44-BE3A-E9E62BFB6CD5}"/>
+    <hyperlink ref="C499" r:id="rId498" display="https://www.covers.com/sport/football/nfl/teams/main/buffalo-bills" xr:uid="{691819C5-FDFB-1F40-A5C6-01F20217A15A}"/>
+    <hyperlink ref="C500" r:id="rId499" display="https://www.covers.com/sport/football/nfl/teams/main/seattle-seahawks" xr:uid="{3E2D7073-B531-0842-84C0-7E0CAB20C624}"/>
+    <hyperlink ref="C501" r:id="rId500" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-jets" xr:uid="{9C2F635C-9897-6242-B143-4185BCE67761}"/>
+    <hyperlink ref="C502" r:id="rId501" display="https://www.covers.com/sport/football/nfl/teams/main/indianapolis-colts" xr:uid="{CDBECACB-2B34-5F45-AD33-53AA66850C31}"/>
+    <hyperlink ref="C503" r:id="rId502" display="https://www.covers.com/sport/football/nfl/teams/main/atlanta-falcons" xr:uid="{684008EF-A413-B44A-9300-A0C043693700}"/>
+    <hyperlink ref="C504" r:id="rId503" display="https://www.covers.com/sport/football/nfl/teams/main/st.-louis-rams" xr:uid="{46CC761E-D90A-0B4F-BEB6-C78C7CBE4776}"/>
+    <hyperlink ref="C505" r:id="rId504" display="https://www.covers.com/sport/football/nfl/teams/main/houston-texans" xr:uid="{D751A1BF-622E-7046-93E1-D6670C1A4004}"/>
+    <hyperlink ref="C506" r:id="rId505" display="https://www.covers.com/sport/football/nfl/teams/main/new-york-giants" xr:uid="{A487DB5A-E19E-744A-9172-F11EA380A946}"/>
+    <hyperlink ref="C507" r:id="rId506" display="https://www.covers.com/sport/football/nfl/teams/main/san-francisco-49ers" xr:uid="{2AE52DFD-973D-8846-B320-4B4B64FA1E68}"/>
+    <hyperlink ref="C508" r:id="rId507" display="https://www.covers.com/sport/football/nfl/teams/main/cleveland-browns" xr:uid="{328D4491-AD5A-5247-8AF2-6D1085A693AB}"/>
+    <hyperlink ref="C509" r:id="rId508" display="https://www.covers.com/sport/football/nfl/teams/main/detroit-lions" xr:uid="{A63B339C-9C2B-1548-B2A7-71DD83FA3F31}"/>
+    <hyperlink ref="C510" r:id="rId509" display="https://www.covers.com/sport/football/nfl/teams/main/arizona-cardinals" xr:uid="{4680AB51-B729-3149-98CA-B81D959CAD72}"/>
+    <hyperlink ref="C511" r:id="rId510" display="https://www.covers.com/sport/football/nfl/teams/main/cincinnati-bengals" xr:uid="{EFAD3EED-8F72-0A4D-AD28-CB10DF73F34C}"/>
+    <hyperlink ref="C512" r:id="rId511" display="https://www.covers.com/sport/football/nfl/teams/main/washington-redskins" xr:uid="{487A96C6-524B-044E-AEF4-954069F3A99A}"/>
+    <hyperlink ref="C513" r:id="rId512" display="https://www.covers.com/sport/football/nfl/teams/main/tennessee-titans" xr:uid="{7EA0488D-6E11-234E-8BCF-43890D5E984B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
